--- a/Stock_data/Walmart.xlsx
+++ b/Stock_data/Walmart.xlsx
@@ -525,7 +525,7 @@
         <v>43832</v>
       </c>
       <c r="B4" t="n">
-        <v>36.86406707763672</v>
+        <v>36.86407470703125</v>
       </c>
       <c r="C4" t="n">
         <v>39.64666748046875</v>
@@ -548,7 +548,7 @@
         <v>43833</v>
       </c>
       <c r="B5" t="n">
-        <v>36.53863906860352</v>
+        <v>36.53862380981445</v>
       </c>
       <c r="C5" t="n">
         <v>39.29666519165039</v>
@@ -594,7 +594,7 @@
         <v>43837</v>
       </c>
       <c r="B7" t="n">
-        <v>36.12641906738281</v>
+        <v>36.12641525268555</v>
       </c>
       <c r="C7" t="n">
         <v>38.85333251953125</v>
@@ -617,7 +617,7 @@
         <v>43838</v>
       </c>
       <c r="B8" t="n">
-        <v>36.00243759155273</v>
+        <v>36.00244140625</v>
       </c>
       <c r="C8" t="n">
         <v>38.72000122070312</v>
@@ -640,7 +640,7 @@
         <v>43839</v>
       </c>
       <c r="B9" t="n">
-        <v>36.37437438964844</v>
+        <v>36.37437057495117</v>
       </c>
       <c r="C9" t="n">
         <v>39.11999893188477</v>
@@ -663,7 +663,7 @@
         <v>43840</v>
       </c>
       <c r="B10" t="n">
-        <v>36.07063293457031</v>
+        <v>36.07061767578125</v>
       </c>
       <c r="C10" t="n">
         <v>38.79333114624023</v>
@@ -686,7 +686,7 @@
         <v>43843</v>
       </c>
       <c r="B11" t="n">
-        <v>35.91566467285156</v>
+        <v>35.91565704345703</v>
       </c>
       <c r="C11" t="n">
         <v>38.62666702270508</v>
@@ -732,7 +732,7 @@
         <v>43845</v>
       </c>
       <c r="B13" t="n">
-        <v>35.72969818115234</v>
+        <v>35.72970581054688</v>
       </c>
       <c r="C13" t="n">
         <v>38.42666625976562</v>
@@ -755,7 +755,7 @@
         <v>43846</v>
       </c>
       <c r="B14" t="n">
-        <v>35.92185592651367</v>
+        <v>35.92185974121094</v>
       </c>
       <c r="C14" t="n">
         <v>38.63333129882812</v>
@@ -778,7 +778,7 @@
         <v>43847</v>
       </c>
       <c r="B15" t="n">
-        <v>35.63051223754883</v>
+        <v>35.63051986694336</v>
       </c>
       <c r="C15" t="n">
         <v>38.31999969482422</v>
@@ -801,7 +801,7 @@
         <v>43851</v>
       </c>
       <c r="B16" t="n">
-        <v>35.82577896118164</v>
+        <v>35.82577133178711</v>
       </c>
       <c r="C16" t="n">
         <v>38.52999877929688</v>
@@ -824,7 +824,7 @@
         <v>43852</v>
       </c>
       <c r="B17" t="n">
-        <v>35.98384857177734</v>
+        <v>35.98385238647461</v>
       </c>
       <c r="C17" t="n">
         <v>38.70000076293945</v>
@@ -847,7 +847,7 @@
         <v>43853</v>
       </c>
       <c r="B18" t="n">
-        <v>35.89397048950195</v>
+        <v>35.89396667480469</v>
       </c>
       <c r="C18" t="n">
         <v>38.60333251953125</v>
@@ -870,7 +870,7 @@
         <v>43854</v>
       </c>
       <c r="B19" t="n">
-        <v>35.44765090942383</v>
+        <v>35.44765472412109</v>
       </c>
       <c r="C19" t="n">
         <v>38.12333297729492</v>
@@ -893,7 +893,7 @@
         <v>43857</v>
       </c>
       <c r="B20" t="n">
-        <v>35.90945053100586</v>
+        <v>35.90945816040039</v>
       </c>
       <c r="C20" t="n">
         <v>38.61999893188477</v>
@@ -916,7 +916,7 @@
         <v>43858</v>
       </c>
       <c r="B21" t="n">
-        <v>36.13880920410156</v>
+        <v>36.13882064819336</v>
       </c>
       <c r="C21" t="n">
         <v>38.86666870117188</v>
@@ -962,7 +962,7 @@
         <v>43860</v>
       </c>
       <c r="B23" t="n">
-        <v>36.13262176513672</v>
+        <v>36.13261032104492</v>
       </c>
       <c r="C23" t="n">
         <v>38.86000061035156</v>
@@ -1008,7 +1008,7 @@
         <v>43864</v>
       </c>
       <c r="B25" t="n">
-        <v>35.41666030883789</v>
+        <v>35.41665649414062</v>
       </c>
       <c r="C25" t="n">
         <v>38.09000015258789</v>
@@ -1031,7 +1031,7 @@
         <v>43865</v>
       </c>
       <c r="B26" t="n">
-        <v>35.72659683227539</v>
+        <v>35.72658920288086</v>
       </c>
       <c r="C26" t="n">
         <v>38.42333221435547</v>
@@ -1077,7 +1077,7 @@
         <v>43867</v>
       </c>
       <c r="B28" t="n">
-        <v>36.04893493652344</v>
+        <v>36.04894256591797</v>
       </c>
       <c r="C28" t="n">
         <v>38.77000045776367</v>
@@ -1100,7 +1100,7 @@
         <v>43868</v>
       </c>
       <c r="B29" t="n">
-        <v>36.09232711791992</v>
+        <v>36.09231567382812</v>
       </c>
       <c r="C29" t="n">
         <v>38.81666564941406</v>
@@ -1123,7 +1123,7 @@
         <v>43871</v>
       </c>
       <c r="B30" t="n">
-        <v>35.72040557861328</v>
+        <v>35.72040176391602</v>
       </c>
       <c r="C30" t="n">
         <v>38.41666793823242</v>
@@ -1146,7 +1146,7 @@
         <v>43872</v>
       </c>
       <c r="B31" t="n">
-        <v>35.76689529418945</v>
+        <v>35.76688385009766</v>
       </c>
       <c r="C31" t="n">
         <v>38.46666717529297</v>
@@ -1169,7 +1169,7 @@
         <v>43873</v>
       </c>
       <c r="B32" t="n">
-        <v>35.90636825561523</v>
+        <v>35.90635681152344</v>
       </c>
       <c r="C32" t="n">
         <v>38.61666870117188</v>
@@ -1215,7 +1215,7 @@
         <v>43875</v>
       </c>
       <c r="B34" t="n">
-        <v>36.53863906860352</v>
+        <v>36.53862380981445</v>
       </c>
       <c r="C34" t="n">
         <v>39.29666519165039</v>
@@ -1238,7 +1238,7 @@
         <v>43879</v>
       </c>
       <c r="B35" t="n">
-        <v>37.07792663574219</v>
+        <v>37.07793045043945</v>
       </c>
       <c r="C35" t="n">
         <v>39.87666702270508</v>
@@ -1261,7 +1261,7 @@
         <v>43880</v>
       </c>
       <c r="B36" t="n">
-        <v>36.47354125976562</v>
+        <v>36.47355270385742</v>
       </c>
       <c r="C36" t="n">
         <v>39.22666549682617</v>
@@ -1284,7 +1284,7 @@
         <v>43881</v>
       </c>
       <c r="B37" t="n">
-        <v>36.47665023803711</v>
+        <v>36.47664642333984</v>
       </c>
       <c r="C37" t="n">
         <v>39.22999954223633</v>
@@ -1307,7 +1307,7 @@
         <v>43882</v>
       </c>
       <c r="B38" t="n">
-        <v>36.75250244140625</v>
+        <v>36.75249481201172</v>
       </c>
       <c r="C38" t="n">
         <v>39.52666854858398</v>
@@ -1330,7 +1330,7 @@
         <v>43885</v>
       </c>
       <c r="B39" t="n">
-        <v>36.05203628540039</v>
+        <v>36.05204010009766</v>
       </c>
       <c r="C39" t="n">
         <v>38.77333450317383</v>
@@ -1353,7 +1353,7 @@
         <v>43886</v>
       </c>
       <c r="B40" t="n">
-        <v>35.45385360717773</v>
+        <v>35.45384979248047</v>
       </c>
       <c r="C40" t="n">
         <v>38.13000106811523</v>
@@ -1376,7 +1376,7 @@
         <v>43887</v>
       </c>
       <c r="B41" t="n">
-        <v>35.26478576660156</v>
+        <v>35.26479721069336</v>
       </c>
       <c r="C41" t="n">
         <v>37.92666625976562</v>
@@ -1399,7 +1399,7 @@
         <v>43888</v>
       </c>
       <c r="B42" t="n">
-        <v>34.21720123291016</v>
+        <v>34.21719360351562</v>
       </c>
       <c r="C42" t="n">
         <v>36.79999923706055</v>
@@ -1422,7 +1422,7 @@
         <v>43889</v>
       </c>
       <c r="B43" t="n">
-        <v>33.37417221069336</v>
+        <v>33.37416076660156</v>
       </c>
       <c r="C43" t="n">
         <v>35.89333343505859</v>
@@ -1445,7 +1445,7 @@
         <v>43892</v>
       </c>
       <c r="B44" t="n">
-        <v>35.91566467285156</v>
+        <v>35.91565704345703</v>
       </c>
       <c r="C44" t="n">
         <v>38.62666702270508</v>
@@ -1468,7 +1468,7 @@
         <v>43893</v>
       </c>
       <c r="B45" t="n">
-        <v>34.99514007568359</v>
+        <v>34.99514389038086</v>
       </c>
       <c r="C45" t="n">
         <v>37.63666534423828</v>
@@ -1491,7 +1491,7 @@
         <v>43894</v>
       </c>
       <c r="B46" t="n">
-        <v>36.19150924682617</v>
+        <v>36.19149780273438</v>
       </c>
       <c r="C46" t="n">
         <v>38.92333221435547</v>
@@ -1514,7 +1514,7 @@
         <v>43895</v>
       </c>
       <c r="B47" t="n">
-        <v>35.92805862426758</v>
+        <v>35.92805099487305</v>
       </c>
       <c r="C47" t="n">
         <v>38.63999938964844</v>
@@ -1560,7 +1560,7 @@
         <v>43899</v>
       </c>
       <c r="B49" t="n">
-        <v>36.31239318847656</v>
+        <v>36.31238555908203</v>
       </c>
       <c r="C49" t="n">
         <v>39.0533332824707</v>
@@ -1583,7 +1583,7 @@
         <v>43900</v>
       </c>
       <c r="B50" t="n">
-        <v>37.12751388549805</v>
+        <v>37.12752151489258</v>
       </c>
       <c r="C50" t="n">
         <v>39.93000030517578</v>
@@ -1606,7 +1606,7 @@
         <v>43901</v>
       </c>
       <c r="B51" t="n">
-        <v>35.46624374389648</v>
+        <v>35.46625518798828</v>
       </c>
       <c r="C51" t="n">
         <v>38.14333343505859</v>
@@ -1652,7 +1652,7 @@
         <v>43903</v>
       </c>
       <c r="B53" t="n">
-        <v>35.36396789550781</v>
+        <v>35.36397933959961</v>
       </c>
       <c r="C53" t="n">
         <v>38.03333282470703</v>
@@ -1675,7 +1675,7 @@
         <v>43906</v>
       </c>
       <c r="B54" t="n">
-        <v>33.08902740478516</v>
+        <v>33.08901596069336</v>
       </c>
       <c r="C54" t="n">
         <v>35.58666610717773</v>
@@ -1698,7 +1698,7 @@
         <v>43907</v>
       </c>
       <c r="B55" t="n">
-        <v>36.96324920654297</v>
+        <v>36.96325302124023</v>
       </c>
       <c r="C55" t="n">
         <v>39.75333404541016</v>
@@ -1744,7 +1744,7 @@
         <v>43909</v>
       </c>
       <c r="B57" t="n">
-        <v>37.18595886230469</v>
+        <v>37.18595123291016</v>
       </c>
       <c r="C57" t="n">
         <v>39.81666564941406</v>
@@ -1767,7 +1767,7 @@
         <v>43910</v>
       </c>
       <c r="B58" t="n">
-        <v>35.47998046875</v>
+        <v>35.47998809814453</v>
       </c>
       <c r="C58" t="n">
         <v>37.9900016784668</v>
@@ -1813,7 +1813,7 @@
         <v>43914</v>
       </c>
       <c r="B60" t="n">
-        <v>35.80996704101562</v>
+        <v>35.80995559692383</v>
       </c>
       <c r="C60" t="n">
         <v>38.34333419799805</v>
@@ -1836,7 +1836,7 @@
         <v>43915</v>
       </c>
       <c r="B61" t="n">
-        <v>34.05728912353516</v>
+        <v>34.05729293823242</v>
       </c>
       <c r="C61" t="n">
         <v>36.46666717529297</v>
@@ -1859,7 +1859,7 @@
         <v>43916</v>
       </c>
       <c r="B62" t="n">
-        <v>34.18804168701172</v>
+        <v>34.18804931640625</v>
       </c>
       <c r="C62" t="n">
         <v>36.60666656494141</v>
@@ -1905,7 +1905,7 @@
         <v>43920</v>
       </c>
       <c r="B64" t="n">
-        <v>35.85977935791016</v>
+        <v>35.85977554321289</v>
       </c>
       <c r="C64" t="n">
         <v>38.39666748046875</v>
@@ -1928,7 +1928,7 @@
         <v>43921</v>
       </c>
       <c r="B65" t="n">
-        <v>35.37101745605469</v>
+        <v>35.37100982666016</v>
       </c>
       <c r="C65" t="n">
         <v>37.87333297729492</v>
@@ -1951,7 +1951,7 @@
         <v>43922</v>
       </c>
       <c r="B66" t="n">
-        <v>35.53289031982422</v>
+        <v>35.53289794921875</v>
       </c>
       <c r="C66" t="n">
         <v>38.04666519165039</v>
@@ -1974,7 +1974,7 @@
         <v>43923</v>
       </c>
       <c r="B67" t="n">
-        <v>36.93691635131836</v>
+        <v>36.9369010925293</v>
       </c>
       <c r="C67" t="n">
         <v>39.54999923706055</v>
@@ -1997,7 +1997,7 @@
         <v>43924</v>
       </c>
       <c r="B68" t="n">
-        <v>37.19529342651367</v>
+        <v>37.19530868530273</v>
       </c>
       <c r="C68" t="n">
         <v>39.82666778564453</v>
@@ -2043,7 +2043,7 @@
         <v>43928</v>
       </c>
       <c r="B70" t="n">
-        <v>37.97668838500977</v>
+        <v>37.97668075561523</v>
       </c>
       <c r="C70" t="n">
         <v>40.66333389282227</v>
@@ -2112,7 +2112,7 @@
         <v>43934</v>
       </c>
       <c r="B73" t="n">
-        <v>39.00711441040039</v>
+        <v>39.00712585449219</v>
       </c>
       <c r="C73" t="n">
         <v>41.76666641235352</v>
@@ -2135,7 +2135,7 @@
         <v>43935</v>
       </c>
       <c r="B74" t="n">
-        <v>40.15895843505859</v>
+        <v>40.15896224975586</v>
       </c>
       <c r="C74" t="n">
         <v>43</v>
@@ -2158,7 +2158,7 @@
         <v>43936</v>
       </c>
       <c r="B75" t="n">
-        <v>40.08424758911133</v>
+        <v>40.08425140380859</v>
       </c>
       <c r="C75" t="n">
         <v>42.91999816894531</v>
@@ -2181,7 +2181,7 @@
         <v>43937</v>
       </c>
       <c r="B76" t="n">
-        <v>41.19561767578125</v>
+        <v>41.19562149047852</v>
       </c>
       <c r="C76" t="n">
         <v>44.11000061035156</v>
@@ -2204,7 +2204,7 @@
         <v>43938</v>
       </c>
       <c r="B77" t="n">
-        <v>41.1302490234375</v>
+        <v>41.13024520874023</v>
       </c>
       <c r="C77" t="n">
         <v>44.04000091552734</v>
@@ -2227,7 +2227,7 @@
         <v>43941</v>
       </c>
       <c r="B78" t="n">
-        <v>40.42357635498047</v>
+        <v>40.42358016967773</v>
       </c>
       <c r="C78" t="n">
         <v>43.28333282470703</v>
@@ -2250,7 +2250,7 @@
         <v>43942</v>
       </c>
       <c r="B79" t="n">
-        <v>40.22434616088867</v>
+        <v>40.22434234619141</v>
       </c>
       <c r="C79" t="n">
         <v>43.06999969482422</v>
@@ -2273,7 +2273,7 @@
         <v>43943</v>
       </c>
       <c r="B80" t="n">
-        <v>40.96526336669922</v>
+        <v>40.96525573730469</v>
       </c>
       <c r="C80" t="n">
         <v>43.86333465576172</v>
@@ -2296,7 +2296,7 @@
         <v>43944</v>
       </c>
       <c r="B81" t="n">
-        <v>40.01264953613281</v>
+        <v>40.01264572143555</v>
       </c>
       <c r="C81" t="n">
         <v>42.84333419799805</v>
@@ -2342,7 +2342,7 @@
         <v>43948</v>
       </c>
       <c r="B83" t="n">
-        <v>39.94104385375977</v>
+        <v>39.94104766845703</v>
       </c>
       <c r="C83" t="n">
         <v>42.76666641235352</v>
@@ -2365,7 +2365,7 @@
         <v>43949</v>
       </c>
       <c r="B84" t="n">
-        <v>39.84764862060547</v>
+        <v>39.84765625</v>
       </c>
       <c r="C84" t="n">
         <v>42.66666793823242</v>
@@ -2411,7 +2411,7 @@
         <v>43951</v>
       </c>
       <c r="B86" t="n">
-        <v>37.83969879150391</v>
+        <v>37.83970260620117</v>
       </c>
       <c r="C86" t="n">
         <v>40.51666641235352</v>
@@ -2434,7 +2434,7 @@
         <v>43952</v>
       </c>
       <c r="B87" t="n">
-        <v>38.26620101928711</v>
+        <v>38.26619720458984</v>
       </c>
       <c r="C87" t="n">
         <v>40.97333145141602</v>
@@ -2457,7 +2457,7 @@
         <v>43955</v>
       </c>
       <c r="B88" t="n">
-        <v>38.509033203125</v>
+        <v>38.5090217590332</v>
       </c>
       <c r="C88" t="n">
         <v>41.23333358764648</v>
@@ -2480,7 +2480,7 @@
         <v>43956</v>
       </c>
       <c r="B89" t="n">
-        <v>38.82966232299805</v>
+        <v>38.82967376708984</v>
       </c>
       <c r="C89" t="n">
         <v>41.57666778564453</v>
@@ -2503,7 +2503,7 @@
         <v>43957</v>
       </c>
       <c r="B90" t="n">
-        <v>38.38449096679688</v>
+        <v>38.38449478149414</v>
       </c>
       <c r="C90" t="n">
         <v>41.09999847412109</v>
@@ -2549,7 +2549,7 @@
         <v>43959</v>
       </c>
       <c r="B92" t="n">
-        <v>38.44077301025391</v>
+        <v>38.4407844543457</v>
       </c>
       <c r="C92" t="n">
         <v>40.97999954223633</v>
@@ -2595,7 +2595,7 @@
         <v>43963</v>
       </c>
       <c r="B94" t="n">
-        <v>38.70343017578125</v>
+        <v>38.70342636108398</v>
       </c>
       <c r="C94" t="n">
         <v>41.2599983215332</v>
@@ -2618,7 +2618,7 @@
         <v>43964</v>
       </c>
       <c r="B95" t="n">
-        <v>38.68154144287109</v>
+        <v>38.68154525756836</v>
       </c>
       <c r="C95" t="n">
         <v>41.23666763305664</v>
@@ -2641,7 +2641,7 @@
         <v>43965</v>
       </c>
       <c r="B96" t="n">
-        <v>38.59086227416992</v>
+        <v>38.59086990356445</v>
       </c>
       <c r="C96" t="n">
         <v>41.13999938964844</v>
@@ -2664,7 +2664,7 @@
         <v>43966</v>
       </c>
       <c r="B97" t="n">
-        <v>39.37881088256836</v>
+        <v>39.37881469726562</v>
       </c>
       <c r="C97" t="n">
         <v>41.97999954223633</v>
@@ -2733,7 +2733,7 @@
         <v>43971</v>
       </c>
       <c r="B100" t="n">
-        <v>39.22561264038086</v>
+        <v>39.22560501098633</v>
       </c>
       <c r="C100" t="n">
         <v>41.81666564941406</v>
@@ -2756,7 +2756,7 @@
         <v>43972</v>
       </c>
       <c r="B101" t="n">
-        <v>39.0817756652832</v>
+        <v>39.08177185058594</v>
       </c>
       <c r="C101" t="n">
         <v>41.66333389282227</v>
@@ -2779,7 +2779,7 @@
         <v>43973</v>
       </c>
       <c r="B102" t="n">
-        <v>38.87540054321289</v>
+        <v>38.87540817260742</v>
       </c>
       <c r="C102" t="n">
         <v>41.44333267211914</v>
@@ -2825,7 +2825,7 @@
         <v>43978</v>
       </c>
       <c r="B104" t="n">
-        <v>38.29694747924805</v>
+        <v>38.29695129394531</v>
       </c>
       <c r="C104" t="n">
         <v>40.82666778564453</v>
@@ -2848,7 +2848,7 @@
         <v>43979</v>
       </c>
       <c r="B105" t="n">
-        <v>38.67529678344727</v>
+        <v>38.67529296875</v>
       </c>
       <c r="C105" t="n">
         <v>41.22999954223633</v>
@@ -2871,7 +2871,7 @@
         <v>43980</v>
       </c>
       <c r="B106" t="n">
-        <v>38.79096984863281</v>
+        <v>38.79098510742188</v>
       </c>
       <c r="C106" t="n">
         <v>41.35333251953125</v>
@@ -2894,7 +2894,7 @@
         <v>43983</v>
       </c>
       <c r="B107" t="n">
-        <v>38.75970077514648</v>
+        <v>38.75970458984375</v>
       </c>
       <c r="C107" t="n">
         <v>41.31999969482422</v>
@@ -2940,7 +2940,7 @@
         <v>43985</v>
       </c>
       <c r="B109" t="n">
-        <v>38.60649871826172</v>
+        <v>38.60650634765625</v>
       </c>
       <c r="C109" t="n">
         <v>41.15666580200195</v>
@@ -2986,7 +2986,7 @@
         <v>43987</v>
       </c>
       <c r="B111" t="n">
-        <v>38.00927734375</v>
+        <v>38.00929260253906</v>
       </c>
       <c r="C111" t="n">
         <v>40.52000045776367</v>
@@ -3009,7 +3009,7 @@
         <v>43990</v>
       </c>
       <c r="B112" t="n">
-        <v>37.90922927856445</v>
+        <v>37.90922546386719</v>
       </c>
       <c r="C112" t="n">
         <v>40.41333389282227</v>
@@ -3032,7 +3032,7 @@
         <v>43991</v>
       </c>
       <c r="B113" t="n">
-        <v>37.9436149597168</v>
+        <v>37.94361877441406</v>
       </c>
       <c r="C113" t="n">
         <v>40.45000076293945</v>
@@ -3078,7 +3078,7 @@
         <v>43993</v>
       </c>
       <c r="B115" t="n">
-        <v>37.54964447021484</v>
+        <v>37.54964828491211</v>
       </c>
       <c r="C115" t="n">
         <v>40.02999877929688</v>
@@ -3101,7 +3101,7 @@
         <v>43994</v>
       </c>
       <c r="B116" t="n">
-        <v>36.81484985351562</v>
+        <v>36.81484603881836</v>
       </c>
       <c r="C116" t="n">
         <v>39.24666595458984</v>
@@ -3147,7 +3147,7 @@
         <v>43998</v>
       </c>
       <c r="B118" t="n">
-        <v>37.41206359863281</v>
+        <v>37.41207122802734</v>
       </c>
       <c r="C118" t="n">
         <v>39.88333129882812</v>
@@ -3170,7 +3170,7 @@
         <v>43999</v>
       </c>
       <c r="B119" t="n">
-        <v>37.21820831298828</v>
+        <v>37.21820449829102</v>
       </c>
       <c r="C119" t="n">
         <v>39.67666625976562</v>
@@ -3193,7 +3193,7 @@
         <v>44000</v>
       </c>
       <c r="B120" t="n">
-        <v>36.89301300048828</v>
+        <v>36.89302062988281</v>
       </c>
       <c r="C120" t="n">
         <v>39.33000183105469</v>
@@ -3216,7 +3216,7 @@
         <v>44001</v>
       </c>
       <c r="B121" t="n">
-        <v>37.47459411621094</v>
+        <v>37.47460174560547</v>
       </c>
       <c r="C121" t="n">
         <v>39.95000076293945</v>
@@ -3262,7 +3262,7 @@
         <v>44005</v>
       </c>
       <c r="B123" t="n">
-        <v>37.85607528686523</v>
+        <v>37.8560676574707</v>
       </c>
       <c r="C123" t="n">
         <v>40.35666656494141</v>
@@ -3285,7 +3285,7 @@
         <v>44006</v>
       </c>
       <c r="B124" t="n">
-        <v>37.61530685424805</v>
+        <v>37.61531066894531</v>
       </c>
       <c r="C124" t="n">
         <v>40.09999847412109</v>
@@ -3331,7 +3331,7 @@
         <v>44008</v>
       </c>
       <c r="B126" t="n">
-        <v>36.99618911743164</v>
+        <v>36.99620819091797</v>
       </c>
       <c r="C126" t="n">
         <v>39.43999862670898</v>
@@ -3423,7 +3423,7 @@
         <v>44014</v>
       </c>
       <c r="B130" t="n">
-        <v>37.27449035644531</v>
+        <v>37.27450180053711</v>
       </c>
       <c r="C130" t="n">
         <v>39.73666763305664</v>
@@ -3446,7 +3446,7 @@
         <v>44018</v>
       </c>
       <c r="B131" t="n">
-        <v>37.17443466186523</v>
+        <v>37.17444229125977</v>
       </c>
       <c r="C131" t="n">
         <v>39.63000106811523</v>
@@ -3538,7 +3538,7 @@
         <v>44022</v>
       </c>
       <c r="B135" t="n">
-        <v>40.86091995239258</v>
+        <v>40.86091232299805</v>
       </c>
       <c r="C135" t="n">
         <v>43.56000137329102</v>
@@ -3584,7 +3584,7 @@
         <v>44026</v>
       </c>
       <c r="B137" t="n">
-        <v>41.27678680419922</v>
+        <v>41.27678298950195</v>
       </c>
       <c r="C137" t="n">
         <v>44.00333404541016</v>
@@ -3607,7 +3607,7 @@
         <v>44027</v>
       </c>
       <c r="B138" t="n">
-        <v>41.27364730834961</v>
+        <v>41.27365493774414</v>
       </c>
       <c r="C138" t="n">
         <v>44</v>
@@ -3653,7 +3653,7 @@
         <v>44029</v>
       </c>
       <c r="B140" t="n">
-        <v>41.19235992431641</v>
+        <v>41.19234848022461</v>
       </c>
       <c r="C140" t="n">
         <v>43.91333389282227</v>
@@ -3699,7 +3699,7 @@
         <v>44033</v>
       </c>
       <c r="B142" t="n">
-        <v>41.3768424987793</v>
+        <v>41.37683486938477</v>
       </c>
       <c r="C142" t="n">
         <v>44.11000061035156</v>
@@ -3722,7 +3722,7 @@
         <v>44034</v>
       </c>
       <c r="B143" t="n">
-        <v>41.48002243041992</v>
+        <v>41.48002624511719</v>
       </c>
       <c r="C143" t="n">
         <v>44.22000122070312</v>
@@ -3745,7 +3745,7 @@
         <v>44035</v>
       </c>
       <c r="B144" t="n">
-        <v>41.16108322143555</v>
+        <v>41.16108703613281</v>
       </c>
       <c r="C144" t="n">
         <v>43.88000106811523</v>
@@ -3768,7 +3768,7 @@
         <v>44036</v>
       </c>
       <c r="B145" t="n">
-        <v>41.03601455688477</v>
+        <v>41.03601837158203</v>
       </c>
       <c r="C145" t="n">
         <v>43.74666595458984</v>
@@ -3791,7 +3791,7 @@
         <v>44039</v>
       </c>
       <c r="B146" t="n">
-        <v>41.02664566040039</v>
+        <v>41.02663803100586</v>
       </c>
       <c r="C146" t="n">
         <v>43.73666763305664</v>
@@ -3814,7 +3814,7 @@
         <v>44040</v>
       </c>
       <c r="B147" t="n">
-        <v>41.1986083984375</v>
+        <v>41.19860458374023</v>
       </c>
       <c r="C147" t="n">
         <v>43.91999816894531</v>
@@ -3860,7 +3860,7 @@
         <v>44042</v>
       </c>
       <c r="B149" t="n">
-        <v>40.68581390380859</v>
+        <v>40.68580627441406</v>
       </c>
       <c r="C149" t="n">
         <v>43.37333297729492</v>
@@ -3929,7 +3929,7 @@
         <v>44047</v>
       </c>
       <c r="B152" t="n">
-        <v>41.16108322143555</v>
+        <v>41.16108703613281</v>
       </c>
       <c r="C152" t="n">
         <v>43.88000106811523</v>
@@ -3952,7 +3952,7 @@
         <v>44048</v>
       </c>
       <c r="B153" t="n">
-        <v>40.58888244628906</v>
+        <v>40.58889389038086</v>
       </c>
       <c r="C153" t="n">
         <v>43.27000045776367</v>
@@ -3975,7 +3975,7 @@
         <v>44049</v>
       </c>
       <c r="B154" t="n">
-        <v>40.44505310058594</v>
+        <v>40.44506072998047</v>
       </c>
       <c r="C154" t="n">
         <v>43.11666870117188</v>
@@ -3998,7 +3998,7 @@
         <v>44050</v>
       </c>
       <c r="B155" t="n">
-        <v>40.63891220092773</v>
+        <v>40.63890838623047</v>
       </c>
       <c r="C155" t="n">
         <v>43.32333374023438</v>
@@ -4021,7 +4021,7 @@
         <v>44053</v>
       </c>
       <c r="B156" t="n">
-        <v>41.23613357543945</v>
+        <v>41.23612594604492</v>
       </c>
       <c r="C156" t="n">
         <v>43.95999908447266</v>
@@ -4044,7 +4044,7 @@
         <v>44054</v>
       </c>
       <c r="B157" t="n">
-        <v>40.71083068847656</v>
+        <v>40.7108268737793</v>
       </c>
       <c r="C157" t="n">
         <v>43.40000152587891</v>
@@ -4067,7 +4067,7 @@
         <v>44055</v>
       </c>
       <c r="B158" t="n">
-        <v>41.23926162719727</v>
+        <v>41.2392578125</v>
       </c>
       <c r="C158" t="n">
         <v>43.96333312988281</v>
@@ -4090,7 +4090,7 @@
         <v>44056</v>
       </c>
       <c r="B159" t="n">
-        <v>41.39624404907227</v>
+        <v>41.39623260498047</v>
       </c>
       <c r="C159" t="n">
         <v>43.95000076293945</v>
@@ -4113,7 +4113,7 @@
         <v>44057</v>
       </c>
       <c r="B160" t="n">
-        <v>41.63171005249023</v>
+        <v>41.63171768188477</v>
       </c>
       <c r="C160" t="n">
         <v>44.20000076293945</v>
@@ -4136,7 +4136,7 @@
         <v>44060</v>
       </c>
       <c r="B161" t="n">
-        <v>42.57360458374023</v>
+        <v>42.5736083984375</v>
       </c>
       <c r="C161" t="n">
         <v>45.20000076293945</v>
@@ -4182,7 +4182,7 @@
         <v>44062</v>
       </c>
       <c r="B163" t="n">
-        <v>41.57205581665039</v>
+        <v>41.57205963134766</v>
       </c>
       <c r="C163" t="n">
         <v>44.13666534423828</v>
@@ -4205,7 +4205,7 @@
         <v>44063</v>
       </c>
       <c r="B164" t="n">
-        <v>40.99436950683594</v>
+        <v>40.99436569213867</v>
       </c>
       <c r="C164" t="n">
         <v>43.52333450317383</v>
@@ -4228,7 +4228,7 @@
         <v>44064</v>
       </c>
       <c r="B165" t="n">
-        <v>41.32716751098633</v>
+        <v>41.32717514038086</v>
       </c>
       <c r="C165" t="n">
         <v>43.87666702270508</v>
@@ -4251,7 +4251,7 @@
         <v>44067</v>
       </c>
       <c r="B166" t="n">
-        <v>41.23298263549805</v>
+        <v>41.23297882080078</v>
       </c>
       <c r="C166" t="n">
         <v>43.77666854858398</v>
@@ -4274,7 +4274,7 @@
         <v>44068</v>
       </c>
       <c r="B167" t="n">
-        <v>41.0131950378418</v>
+        <v>41.01320266723633</v>
       </c>
       <c r="C167" t="n">
         <v>43.54333114624023</v>
@@ -4297,7 +4297,7 @@
         <v>44069</v>
       </c>
       <c r="B168" t="n">
-        <v>41.03518295288086</v>
+        <v>41.03517150878906</v>
       </c>
       <c r="C168" t="n">
         <v>43.56666564941406</v>
@@ -4343,7 +4343,7 @@
         <v>44071</v>
       </c>
       <c r="B170" t="n">
-        <v>44.04924774169922</v>
+        <v>44.04924392700195</v>
       </c>
       <c r="C170" t="n">
         <v>46.76666641235352</v>
@@ -4389,7 +4389,7 @@
         <v>44075</v>
       </c>
       <c r="B172" t="n">
-        <v>46.33805084228516</v>
+        <v>46.33804321289062</v>
       </c>
       <c r="C172" t="n">
         <v>49.1966667175293</v>
@@ -4412,7 +4412,7 @@
         <v>44076</v>
       </c>
       <c r="B173" t="n">
-        <v>46.36629486083984</v>
+        <v>46.36629867553711</v>
       </c>
       <c r="C173" t="n">
         <v>49.22666549682617</v>
@@ -4435,7 +4435,7 @@
         <v>44077</v>
       </c>
       <c r="B174" t="n">
-        <v>45.38045501708984</v>
+        <v>45.38045120239258</v>
       </c>
       <c r="C174" t="n">
         <v>48.18000030517578</v>
@@ -4458,7 +4458,7 @@
         <v>44078</v>
       </c>
       <c r="B175" t="n">
-        <v>44.84356307983398</v>
+        <v>44.84356689453125</v>
       </c>
       <c r="C175" t="n">
         <v>47.61000061035156</v>
@@ -4481,7 +4481,7 @@
         <v>44082</v>
       </c>
       <c r="B176" t="n">
-        <v>43.46841812133789</v>
+        <v>43.46839904785156</v>
       </c>
       <c r="C176" t="n">
         <v>46.15000152587891</v>
@@ -4504,7 +4504,7 @@
         <v>44083</v>
       </c>
       <c r="B177" t="n">
-        <v>43.92051315307617</v>
+        <v>43.92052459716797</v>
       </c>
       <c r="C177" t="n">
         <v>46.63000106811523</v>
@@ -4527,7 +4527,7 @@
         <v>44084</v>
       </c>
       <c r="B178" t="n">
-        <v>42.95350646972656</v>
+        <v>42.95349884033203</v>
       </c>
       <c r="C178" t="n">
         <v>45.60333251953125</v>
@@ -4573,7 +4573,7 @@
         <v>44088</v>
       </c>
       <c r="B180" t="n">
-        <v>43.11362838745117</v>
+        <v>43.1136360168457</v>
       </c>
       <c r="C180" t="n">
         <v>45.77333450317383</v>
@@ -4596,7 +4596,7 @@
         <v>44089</v>
       </c>
       <c r="B181" t="n">
-        <v>43.12618637084961</v>
+        <v>43.12618255615234</v>
       </c>
       <c r="C181" t="n">
         <v>45.78666687011719</v>
@@ -4642,7 +4642,7 @@
         <v>44091</v>
       </c>
       <c r="B183" t="n">
-        <v>42.91582870483398</v>
+        <v>42.91583251953125</v>
       </c>
       <c r="C183" t="n">
         <v>45.56333160400391</v>
@@ -4688,7 +4688,7 @@
         <v>44095</v>
       </c>
       <c r="B185" t="n">
-        <v>43.03512954711914</v>
+        <v>43.03513336181641</v>
       </c>
       <c r="C185" t="n">
         <v>45.68999862670898</v>
@@ -4711,7 +4711,7 @@
         <v>44096</v>
       </c>
       <c r="B186" t="n">
-        <v>43.42445373535156</v>
+        <v>43.42444610595703</v>
       </c>
       <c r="C186" t="n">
         <v>46.10333251953125</v>
@@ -4803,7 +4803,7 @@
         <v>44102</v>
       </c>
       <c r="B190" t="n">
-        <v>43.09165191650391</v>
+        <v>43.09164810180664</v>
       </c>
       <c r="C190" t="n">
         <v>45.75</v>
@@ -4826,7 +4826,7 @@
         <v>44103</v>
       </c>
       <c r="B191" t="n">
-        <v>43.05712127685547</v>
+        <v>43.0571174621582</v>
       </c>
       <c r="C191" t="n">
         <v>45.71333312988281</v>
@@ -4895,7 +4895,7 @@
         <v>44106</v>
       </c>
       <c r="B194" t="n">
-        <v>44.11203384399414</v>
+        <v>44.11203002929688</v>
       </c>
       <c r="C194" t="n">
         <v>46.83333206176758</v>
@@ -4918,7 +4918,7 @@
         <v>44109</v>
       </c>
       <c r="B195" t="n">
-        <v>44.52019882202148</v>
+        <v>44.52018737792969</v>
       </c>
       <c r="C195" t="n">
         <v>47.26666641235352</v>
@@ -4941,7 +4941,7 @@
         <v>44110</v>
       </c>
       <c r="B196" t="n">
-        <v>44.15285491943359</v>
+        <v>44.15284729003906</v>
       </c>
       <c r="C196" t="n">
         <v>46.87666702270508</v>
@@ -4964,7 +4964,7 @@
         <v>44111</v>
       </c>
       <c r="B197" t="n">
-        <v>44.23448944091797</v>
+        <v>44.23447418212891</v>
       </c>
       <c r="C197" t="n">
         <v>46.96333312988281</v>
@@ -4987,7 +4987,7 @@
         <v>44112</v>
       </c>
       <c r="B198" t="n">
-        <v>44.38204956054688</v>
+        <v>44.38204574584961</v>
       </c>
       <c r="C198" t="n">
         <v>47.11999893188477</v>
@@ -5010,7 +5010,7 @@
         <v>44113</v>
       </c>
       <c r="B199" t="n">
-        <v>44.827880859375</v>
+        <v>44.8278694152832</v>
       </c>
       <c r="C199" t="n">
         <v>47.59333419799805</v>
@@ -5033,7 +5033,7 @@
         <v>44116</v>
       </c>
       <c r="B200" t="n">
-        <v>45.28939819335938</v>
+        <v>45.28940582275391</v>
       </c>
       <c r="C200" t="n">
         <v>48.08333206176758</v>
@@ -5056,7 +5056,7 @@
         <v>44117</v>
       </c>
       <c r="B201" t="n">
-        <v>45.91104888916016</v>
+        <v>45.91104507446289</v>
       </c>
       <c r="C201" t="n">
         <v>48.74333190917969</v>
@@ -5079,7 +5079,7 @@
         <v>44118</v>
       </c>
       <c r="B202" t="n">
-        <v>45.19206619262695</v>
+        <v>45.19207763671875</v>
       </c>
       <c r="C202" t="n">
         <v>47.97999954223633</v>
@@ -5102,7 +5102,7 @@
         <v>44119</v>
       </c>
       <c r="B203" t="n">
-        <v>45.3773193359375</v>
+        <v>45.37731170654297</v>
       </c>
       <c r="C203" t="n">
         <v>48.17666625976562</v>
@@ -5148,7 +5148,7 @@
         <v>44123</v>
       </c>
       <c r="B205" t="n">
-        <v>44.88124847412109</v>
+        <v>44.88125610351562</v>
       </c>
       <c r="C205" t="n">
         <v>47.65000152587891</v>
@@ -5171,7 +5171,7 @@
         <v>44124</v>
       </c>
       <c r="B206" t="n">
-        <v>45.17951583862305</v>
+        <v>45.17950820922852</v>
       </c>
       <c r="C206" t="n">
         <v>47.96666717529297</v>
@@ -5194,7 +5194,7 @@
         <v>44125</v>
       </c>
       <c r="B207" t="n">
-        <v>45.33649063110352</v>
+        <v>45.33650207519531</v>
       </c>
       <c r="C207" t="n">
         <v>48.13333129882812</v>
@@ -5240,7 +5240,7 @@
         <v>44127</v>
       </c>
       <c r="B209" t="n">
-        <v>45.16381454467773</v>
+        <v>45.16382217407227</v>
       </c>
       <c r="C209" t="n">
         <v>47.95000076293945</v>
@@ -5263,7 +5263,7 @@
         <v>44130</v>
       </c>
       <c r="B210" t="n">
-        <v>44.63321685791016</v>
+        <v>44.63320922851562</v>
       </c>
       <c r="C210" t="n">
         <v>47.38666534423828</v>
@@ -5309,7 +5309,7 @@
         <v>44132</v>
       </c>
       <c r="B212" t="n">
-        <v>43.96761703491211</v>
+        <v>43.96761322021484</v>
       </c>
       <c r="C212" t="n">
         <v>46.68000030517578</v>
@@ -5332,7 +5332,7 @@
         <v>44133</v>
       </c>
       <c r="B213" t="n">
-        <v>43.92993545532227</v>
+        <v>43.92992782592773</v>
       </c>
       <c r="C213" t="n">
         <v>46.63999938964844</v>
@@ -5355,7 +5355,7 @@
         <v>44134</v>
       </c>
       <c r="B214" t="n">
-        <v>43.56259536743164</v>
+        <v>43.56260299682617</v>
       </c>
       <c r="C214" t="n">
         <v>46.25</v>
@@ -5378,7 +5378,7 @@
         <v>44137</v>
       </c>
       <c r="B215" t="n">
-        <v>44.08063888549805</v>
+        <v>44.08064270019531</v>
       </c>
       <c r="C215" t="n">
         <v>46.79999923706055</v>
@@ -5401,7 +5401,7 @@
         <v>44138</v>
       </c>
       <c r="B216" t="n">
-        <v>44.827880859375</v>
+        <v>44.8278694152832</v>
       </c>
       <c r="C216" t="n">
         <v>47.59333419799805</v>
@@ -5447,7 +5447,7 @@
         <v>44140</v>
       </c>
       <c r="B218" t="n">
-        <v>45.04450988769531</v>
+        <v>45.04451370239258</v>
       </c>
       <c r="C218" t="n">
         <v>47.82333374023438</v>
@@ -5470,7 +5470,7 @@
         <v>44141</v>
       </c>
       <c r="B219" t="n">
-        <v>45.76662826538086</v>
+        <v>45.76663589477539</v>
       </c>
       <c r="C219" t="n">
         <v>48.59000015258789</v>
@@ -5493,7 +5493,7 @@
         <v>44144</v>
       </c>
       <c r="B220" t="n">
-        <v>45.06649017333984</v>
+        <v>45.06648635864258</v>
       </c>
       <c r="C220" t="n">
         <v>47.8466682434082</v>
@@ -5516,7 +5516,7 @@
         <v>44145</v>
       </c>
       <c r="B221" t="n">
-        <v>45.70069122314453</v>
+        <v>45.70069885253906</v>
       </c>
       <c r="C221" t="n">
         <v>48.52000045776367</v>
@@ -5562,7 +5562,7 @@
         <v>44147</v>
       </c>
       <c r="B223" t="n">
-        <v>46.53897476196289</v>
+        <v>46.53898239135742</v>
       </c>
       <c r="C223" t="n">
         <v>49.40999984741211</v>
@@ -5608,7 +5608,7 @@
         <v>44151</v>
       </c>
       <c r="B225" t="n">
-        <v>47.86076354980469</v>
+        <v>47.86077117919922</v>
       </c>
       <c r="C225" t="n">
         <v>50.81333160400391</v>
@@ -5631,7 +5631,7 @@
         <v>44152</v>
       </c>
       <c r="B226" t="n">
-        <v>46.89690780639648</v>
+        <v>46.89690017700195</v>
       </c>
       <c r="C226" t="n">
         <v>49.79000091552734</v>
@@ -5654,7 +5654,7 @@
         <v>44153</v>
       </c>
       <c r="B227" t="n">
-        <v>46.80898284912109</v>
+        <v>46.80899429321289</v>
       </c>
       <c r="C227" t="n">
         <v>49.6966667175293</v>
@@ -5677,7 +5677,7 @@
         <v>44154</v>
       </c>
       <c r="B228" t="n">
-        <v>47.76030349731445</v>
+        <v>47.76030731201172</v>
       </c>
       <c r="C228" t="n">
         <v>50.70666885375977</v>
@@ -5700,7 +5700,7 @@
         <v>44155</v>
       </c>
       <c r="B229" t="n">
-        <v>47.17006301879883</v>
+        <v>47.17005920410156</v>
       </c>
       <c r="C229" t="n">
         <v>50.08000183105469</v>
@@ -5723,7 +5723,7 @@
         <v>44158</v>
       </c>
       <c r="B230" t="n">
-        <v>47.38669204711914</v>
+        <v>47.38668060302734</v>
       </c>
       <c r="C230" t="n">
         <v>50.31000137329102</v>
@@ -5769,7 +5769,7 @@
         <v>44160</v>
       </c>
       <c r="B232" t="n">
-        <v>47.66925430297852</v>
+        <v>47.66925811767578</v>
       </c>
       <c r="C232" t="n">
         <v>50.61000061035156</v>
@@ -5792,7 +5792,7 @@
         <v>44162</v>
       </c>
       <c r="B233" t="n">
-        <v>47.59703826904297</v>
+        <v>47.5970458984375</v>
       </c>
       <c r="C233" t="n">
         <v>50.53333282470703</v>
@@ -5815,7 +5815,7 @@
         <v>44165</v>
       </c>
       <c r="B234" t="n">
-        <v>47.97066116333008</v>
+        <v>47.97066497802734</v>
       </c>
       <c r="C234" t="n">
         <v>50.93000030517578</v>
@@ -5861,7 +5861,7 @@
         <v>44167</v>
       </c>
       <c r="B236" t="n">
-        <v>47.25795745849609</v>
+        <v>47.25796127319336</v>
       </c>
       <c r="C236" t="n">
         <v>50.17333221435547</v>
@@ -5884,7 +5884,7 @@
         <v>44168</v>
       </c>
       <c r="B237" t="n">
-        <v>46.87492752075195</v>
+        <v>46.87492370605469</v>
       </c>
       <c r="C237" t="n">
         <v>49.76666641235352</v>
@@ -5907,7 +5907,7 @@
         <v>44169</v>
       </c>
       <c r="B238" t="n">
-        <v>46.75247573852539</v>
+        <v>46.75247955322266</v>
       </c>
       <c r="C238" t="n">
         <v>49.63666534423828</v>
@@ -5930,7 +5930,7 @@
         <v>44172</v>
       </c>
       <c r="B239" t="n">
-        <v>46.50130081176758</v>
+        <v>46.50130462646484</v>
       </c>
       <c r="C239" t="n">
         <v>49.36999893188477</v>
@@ -5976,7 +5976,7 @@
         <v>44174</v>
       </c>
       <c r="B241" t="n">
-        <v>46.55154037475586</v>
+        <v>46.55154418945312</v>
       </c>
       <c r="C241" t="n">
         <v>49.42333221435547</v>
@@ -5999,7 +5999,7 @@
         <v>44175</v>
       </c>
       <c r="B242" t="n">
-        <v>46.33410263061523</v>
+        <v>46.3341178894043</v>
       </c>
       <c r="C242" t="n">
         <v>49.01333236694336</v>
@@ -6045,7 +6045,7 @@
         <v>44179</v>
       </c>
       <c r="B244" t="n">
-        <v>45.8961067199707</v>
+        <v>45.89611053466797</v>
       </c>
       <c r="C244" t="n">
         <v>48.54999923706055</v>
@@ -6068,7 +6068,7 @@
         <v>44180</v>
       </c>
       <c r="B245" t="n">
-        <v>45.87405776977539</v>
+        <v>45.87405014038086</v>
       </c>
       <c r="C245" t="n">
         <v>48.52666854858398</v>
@@ -6091,7 +6091,7 @@
         <v>44181</v>
       </c>
       <c r="B246" t="n">
-        <v>45.82678604125977</v>
+        <v>45.82677841186523</v>
       </c>
       <c r="C246" t="n">
         <v>48.47666549682617</v>
@@ -6114,7 +6114,7 @@
         <v>44182</v>
       </c>
       <c r="B247" t="n">
-        <v>46.03791809082031</v>
+        <v>46.03791046142578</v>
       </c>
       <c r="C247" t="n">
         <v>48.70000076293945</v>
@@ -6137,7 +6137,7 @@
         <v>44183</v>
       </c>
       <c r="B248" t="n">
-        <v>45.99064254760742</v>
+        <v>45.99064636230469</v>
       </c>
       <c r="C248" t="n">
         <v>48.65000152587891</v>
@@ -6160,7 +6160,7 @@
         <v>44186</v>
       </c>
       <c r="B249" t="n">
-        <v>45.9969482421875</v>
+        <v>45.99694442749023</v>
       </c>
       <c r="C249" t="n">
         <v>48.65666580200195</v>
@@ -6252,7 +6252,7 @@
         <v>44193</v>
       </c>
       <c r="B253" t="n">
-        <v>45.7606086730957</v>
+        <v>45.76061248779297</v>
       </c>
       <c r="C253" t="n">
         <v>48.40666580200195</v>
@@ -6275,7 +6275,7 @@
         <v>44194</v>
       </c>
       <c r="B254" t="n">
-        <v>45.47070693969727</v>
+        <v>45.47069931030273</v>
       </c>
       <c r="C254" t="n">
         <v>48.09999847412109</v>
@@ -6298,7 +6298,7 @@
         <v>44195</v>
       </c>
       <c r="B255" t="n">
-        <v>45.43289566040039</v>
+        <v>45.43289947509766</v>
       </c>
       <c r="C255" t="n">
         <v>48.06000137329102</v>
@@ -6321,7 +6321,7 @@
         <v>44196</v>
       </c>
       <c r="B256" t="n">
-        <v>45.42343902587891</v>
+        <v>45.42343139648438</v>
       </c>
       <c r="C256" t="n">
         <v>48.04999923706055</v>
@@ -6344,7 +6344,7 @@
         <v>44200</v>
       </c>
       <c r="B257" t="n">
-        <v>46.17340087890625</v>
+        <v>46.17340469360352</v>
       </c>
       <c r="C257" t="n">
         <v>48.84333419799805</v>
@@ -6367,7 +6367,7 @@
         <v>44201</v>
       </c>
       <c r="B258" t="n">
-        <v>45.92761611938477</v>
+        <v>45.92761993408203</v>
       </c>
       <c r="C258" t="n">
         <v>48.58333206176758</v>
@@ -6413,7 +6413,7 @@
         <v>44203</v>
       </c>
       <c r="B260" t="n">
-        <v>46.21121597290039</v>
+        <v>46.21121215820312</v>
       </c>
       <c r="C260" t="n">
         <v>48.88333129882812</v>
@@ -6436,7 +6436,7 @@
         <v>44204</v>
       </c>
       <c r="B261" t="n">
-        <v>46.20491790771484</v>
+        <v>46.20492172241211</v>
       </c>
       <c r="C261" t="n">
         <v>48.87666702270508</v>
@@ -6482,7 +6482,7 @@
         <v>44208</v>
       </c>
       <c r="B263" t="n">
-        <v>46.94227600097656</v>
+        <v>46.94228363037109</v>
       </c>
       <c r="C263" t="n">
         <v>49.65666580200195</v>
@@ -6505,7 +6505,7 @@
         <v>44209</v>
       </c>
       <c r="B264" t="n">
-        <v>46.46331405639648</v>
+        <v>46.46331024169922</v>
       </c>
       <c r="C264" t="n">
         <v>49.15000152587891</v>
@@ -6528,7 +6528,7 @@
         <v>44210</v>
       </c>
       <c r="B265" t="n">
-        <v>46.31205368041992</v>
+        <v>46.31206130981445</v>
       </c>
       <c r="C265" t="n">
         <v>48.9900016784668</v>
@@ -6551,7 +6551,7 @@
         <v>44211</v>
       </c>
       <c r="B266" t="n">
-        <v>45.57784271240234</v>
+        <v>45.57783889770508</v>
       </c>
       <c r="C266" t="n">
         <v>48.21333312988281</v>
@@ -6574,7 +6574,7 @@
         <v>44215</v>
       </c>
       <c r="B267" t="n">
-        <v>45.1839485168457</v>
+        <v>45.1839599609375</v>
       </c>
       <c r="C267" t="n">
         <v>47.79666519165039</v>
@@ -6597,7 +6597,7 @@
         <v>44216</v>
       </c>
       <c r="B268" t="n">
-        <v>45.85199737548828</v>
+        <v>45.85198974609375</v>
       </c>
       <c r="C268" t="n">
         <v>48.50333404541016</v>
@@ -6620,7 +6620,7 @@
         <v>44217</v>
       </c>
       <c r="B269" t="n">
-        <v>45.64402389526367</v>
+        <v>45.64402008056641</v>
       </c>
       <c r="C269" t="n">
         <v>48.28333282470703</v>
@@ -6643,7 +6643,7 @@
         <v>44218</v>
       </c>
       <c r="B270" t="n">
-        <v>46.11037826538086</v>
+        <v>46.11038970947266</v>
       </c>
       <c r="C270" t="n">
         <v>48.77666854858398</v>
@@ -6666,7 +6666,7 @@
         <v>44221</v>
       </c>
       <c r="B271" t="n">
-        <v>46.06941604614258</v>
+        <v>46.06941223144531</v>
       </c>
       <c r="C271" t="n">
         <v>48.73333358764648</v>
@@ -6689,7 +6689,7 @@
         <v>44222</v>
       </c>
       <c r="B272" t="n">
-        <v>46.48221588134766</v>
+        <v>46.48221206665039</v>
       </c>
       <c r="C272" t="n">
         <v>49.16999816894531</v>
@@ -6735,7 +6735,7 @@
         <v>44224</v>
       </c>
       <c r="B274" t="n">
-        <v>45.29740142822266</v>
+        <v>45.29739379882812</v>
       </c>
       <c r="C274" t="n">
         <v>47.91666793823242</v>
@@ -6758,7 +6758,7 @@
         <v>44225</v>
       </c>
       <c r="B275" t="n">
-        <v>44.27012252807617</v>
+        <v>44.27012634277344</v>
       </c>
       <c r="C275" t="n">
         <v>46.83000183105469</v>
@@ -6781,7 +6781,7 @@
         <v>44228</v>
       </c>
       <c r="B276" t="n">
-        <v>43.88569641113281</v>
+        <v>43.88568115234375</v>
       </c>
       <c r="C276" t="n">
         <v>46.42333221435547</v>
@@ -6804,7 +6804,7 @@
         <v>44229</v>
       </c>
       <c r="B277" t="n">
-        <v>44.35836029052734</v>
+        <v>44.35835266113281</v>
       </c>
       <c r="C277" t="n">
         <v>46.92333221435547</v>
@@ -6827,7 +6827,7 @@
         <v>44230</v>
       </c>
       <c r="B278" t="n">
-        <v>44.49385452270508</v>
+        <v>44.49385070800781</v>
       </c>
       <c r="C278" t="n">
         <v>47.06666564941406</v>
@@ -6896,7 +6896,7 @@
         <v>44235</v>
       </c>
       <c r="B281" t="n">
-        <v>45.70073318481445</v>
+        <v>45.70073699951172</v>
       </c>
       <c r="C281" t="n">
         <v>48.34333419799805</v>
@@ -6919,7 +6919,7 @@
         <v>44236</v>
       </c>
       <c r="B282" t="n">
-        <v>45.95282745361328</v>
+        <v>45.95282363891602</v>
       </c>
       <c r="C282" t="n">
         <v>48.61000061035156</v>
@@ -6965,7 +6965,7 @@
         <v>44238</v>
       </c>
       <c r="B284" t="n">
-        <v>45.38248062133789</v>
+        <v>45.38247680664062</v>
       </c>
       <c r="C284" t="n">
         <v>48.00666809082031</v>
@@ -6988,7 +6988,7 @@
         <v>44239</v>
       </c>
       <c r="B285" t="n">
-        <v>45.52427291870117</v>
+        <v>45.52427673339844</v>
       </c>
       <c r="C285" t="n">
         <v>48.15666580200195</v>
@@ -7011,7 +7011,7 @@
         <v>44243</v>
       </c>
       <c r="B286" t="n">
-        <v>45.89925765991211</v>
+        <v>45.89925003051758</v>
       </c>
       <c r="C286" t="n">
         <v>48.5533332824707</v>
@@ -7034,7 +7034,7 @@
         <v>44244</v>
       </c>
       <c r="B287" t="n">
-        <v>46.38453674316406</v>
+        <v>46.38452529907227</v>
       </c>
       <c r="C287" t="n">
         <v>49.06666564941406</v>
@@ -7057,7 +7057,7 @@
         <v>44245</v>
       </c>
       <c r="B288" t="n">
-        <v>43.37835311889648</v>
+        <v>43.37835693359375</v>
       </c>
       <c r="C288" t="n">
         <v>45.88666534423828</v>
@@ -7103,7 +7103,7 @@
         <v>44249</v>
       </c>
       <c r="B290" t="n">
-        <v>43.38781356811523</v>
+        <v>43.38780975341797</v>
       </c>
       <c r="C290" t="n">
         <v>45.89666748046875</v>
@@ -7126,7 +7126,7 @@
         <v>44250</v>
       </c>
       <c r="B291" t="n">
-        <v>42.68827056884766</v>
+        <v>42.68826293945312</v>
       </c>
       <c r="C291" t="n">
         <v>45.15666580200195</v>
@@ -7149,7 +7149,7 @@
         <v>44251</v>
       </c>
       <c r="B292" t="n">
-        <v>41.97610855102539</v>
+        <v>41.97610473632812</v>
       </c>
       <c r="C292" t="n">
         <v>44.4033317565918</v>
@@ -7172,7 +7172,7 @@
         <v>44252</v>
       </c>
       <c r="B293" t="n">
-        <v>41.57907485961914</v>
+        <v>41.57906341552734</v>
       </c>
       <c r="C293" t="n">
         <v>43.98333358764648</v>
@@ -7195,7 +7195,7 @@
         <v>44253</v>
       </c>
       <c r="B294" t="n">
-        <v>40.93939208984375</v>
+        <v>40.93938827514648</v>
       </c>
       <c r="C294" t="n">
         <v>43.30666732788086</v>
@@ -7241,7 +7241,7 @@
         <v>44257</v>
       </c>
       <c r="B296" t="n">
-        <v>40.99926376342773</v>
+        <v>40.99925994873047</v>
       </c>
       <c r="C296" t="n">
         <v>43.36999893188477</v>
@@ -7264,7 +7264,7 @@
         <v>44258</v>
       </c>
       <c r="B297" t="n">
-        <v>40.20517349243164</v>
+        <v>40.20516967773438</v>
       </c>
       <c r="C297" t="n">
         <v>42.52999877929688</v>
@@ -7287,7 +7287,7 @@
         <v>44259</v>
       </c>
       <c r="B298" t="n">
-        <v>40.18627548217773</v>
+        <v>40.1862678527832</v>
       </c>
       <c r="C298" t="n">
         <v>42.5099983215332</v>
@@ -7310,7 +7310,7 @@
         <v>44260</v>
       </c>
       <c r="B299" t="n">
-        <v>40.68730545043945</v>
+        <v>40.68729400634766</v>
       </c>
       <c r="C299" t="n">
         <v>43.04000091552734</v>
@@ -7333,7 +7333,7 @@
         <v>44263</v>
       </c>
       <c r="B300" t="n">
-        <v>40.29656219482422</v>
+        <v>40.29655838012695</v>
       </c>
       <c r="C300" t="n">
         <v>42.62666702270508</v>
@@ -7356,7 +7356,7 @@
         <v>44264</v>
       </c>
       <c r="B301" t="n">
-        <v>40.61483001708984</v>
+        <v>40.61482620239258</v>
       </c>
       <c r="C301" t="n">
         <v>42.96333312988281</v>
@@ -7379,7 +7379,7 @@
         <v>44265</v>
       </c>
       <c r="B302" t="n">
-        <v>41.65154266357422</v>
+        <v>41.65155029296875</v>
       </c>
       <c r="C302" t="n">
         <v>44.06000137329102</v>
@@ -7402,7 +7402,7 @@
         <v>44266</v>
       </c>
       <c r="B303" t="n">
-        <v>41.63578414916992</v>
+        <v>41.63578796386719</v>
       </c>
       <c r="C303" t="n">
         <v>44.04333114624023</v>
@@ -7425,7 +7425,7 @@
         <v>44267</v>
       </c>
       <c r="B304" t="n">
-        <v>42.26286315917969</v>
+        <v>42.26285552978516</v>
       </c>
       <c r="C304" t="n">
         <v>44.70666885375977</v>
@@ -7448,7 +7448,7 @@
         <v>44270</v>
       </c>
       <c r="B305" t="n">
-        <v>42.04543304443359</v>
+        <v>42.04542922973633</v>
       </c>
       <c r="C305" t="n">
         <v>44.47666549682617</v>
@@ -7471,7 +7471,7 @@
         <v>44271</v>
       </c>
       <c r="B306" t="n">
-        <v>42.0328254699707</v>
+        <v>42.03282928466797</v>
       </c>
       <c r="C306" t="n">
         <v>44.46333312988281</v>
@@ -7494,7 +7494,7 @@
         <v>44272</v>
       </c>
       <c r="B307" t="n">
-        <v>41.68305969238281</v>
+        <v>41.68305206298828</v>
       </c>
       <c r="C307" t="n">
         <v>44.09333419799805</v>
@@ -7517,7 +7517,7 @@
         <v>44273</v>
       </c>
       <c r="B308" t="n">
-        <v>41.13880920410156</v>
+        <v>41.1387939453125</v>
       </c>
       <c r="C308" t="n">
         <v>43.33666610717773</v>
@@ -7540,7 +7540,7 @@
         <v>44274</v>
       </c>
       <c r="B309" t="n">
-        <v>41.68621826171875</v>
+        <v>41.68620681762695</v>
       </c>
       <c r="C309" t="n">
         <v>43.91333389282227</v>
@@ -7563,7 +7563,7 @@
         <v>44277</v>
       </c>
       <c r="B310" t="n">
-        <v>41.88557052612305</v>
+        <v>41.88556671142578</v>
       </c>
       <c r="C310" t="n">
         <v>44.12333297729492</v>
@@ -7586,7 +7586,7 @@
         <v>44278</v>
       </c>
       <c r="B311" t="n">
-        <v>42.38235855102539</v>
+        <v>42.38236618041992</v>
       </c>
       <c r="C311" t="n">
         <v>44.64666748046875</v>
@@ -7609,7 +7609,7 @@
         <v>44279</v>
       </c>
       <c r="B312" t="n">
-        <v>42.11972045898438</v>
+        <v>42.11972427368164</v>
       </c>
       <c r="C312" t="n">
         <v>44.36999893188477</v>
@@ -7632,7 +7632,7 @@
         <v>44280</v>
       </c>
       <c r="B313" t="n">
-        <v>42.40451049804688</v>
+        <v>42.40451431274414</v>
       </c>
       <c r="C313" t="n">
         <v>44.66999816894531</v>
@@ -7655,7 +7655,7 @@
         <v>44281</v>
       </c>
       <c r="B314" t="n">
-        <v>42.7589111328125</v>
+        <v>42.75890731811523</v>
       </c>
       <c r="C314" t="n">
         <v>45.04333114624023</v>
@@ -7678,7 +7678,7 @@
         <v>44284</v>
       </c>
       <c r="B315" t="n">
-        <v>43.24620819091797</v>
+        <v>43.2462043762207</v>
       </c>
       <c r="C315" t="n">
         <v>45.55666732788086</v>
@@ -7701,7 +7701,7 @@
         <v>44285</v>
       </c>
       <c r="B316" t="n">
-        <v>42.95193099975586</v>
+        <v>42.95193862915039</v>
       </c>
       <c r="C316" t="n">
         <v>45.24666595458984</v>
@@ -7724,7 +7724,7 @@
         <v>44286</v>
       </c>
       <c r="B317" t="n">
-        <v>42.98041152954102</v>
+        <v>42.98041915893555</v>
       </c>
       <c r="C317" t="n">
         <v>45.27666854858398</v>
@@ -7747,7 +7747,7 @@
         <v>44287</v>
       </c>
       <c r="B318" t="n">
-        <v>42.91396331787109</v>
+        <v>42.91395568847656</v>
       </c>
       <c r="C318" t="n">
         <v>45.20666885375977</v>
@@ -7770,7 +7770,7 @@
         <v>44291</v>
       </c>
       <c r="B319" t="n">
-        <v>44.11955261230469</v>
+        <v>44.11954498291016</v>
       </c>
       <c r="C319" t="n">
         <v>46.47666549682617</v>
@@ -7793,7 +7793,7 @@
         <v>44292</v>
       </c>
       <c r="B320" t="n">
-        <v>44.3315544128418</v>
+        <v>44.33155822753906</v>
       </c>
       <c r="C320" t="n">
         <v>46.70000076293945</v>
@@ -7816,7 +7816,7 @@
         <v>44293</v>
       </c>
       <c r="B321" t="n">
-        <v>44.23663330078125</v>
+        <v>44.23662185668945</v>
       </c>
       <c r="C321" t="n">
         <v>46.59999847412109</v>
@@ -7839,7 +7839,7 @@
         <v>44294</v>
       </c>
       <c r="B322" t="n">
-        <v>44.20814514160156</v>
+        <v>44.20814895629883</v>
       </c>
       <c r="C322" t="n">
         <v>46.56999969482422</v>
@@ -7862,7 +7862,7 @@
         <v>44295</v>
       </c>
       <c r="B323" t="n">
-        <v>44.23028945922852</v>
+        <v>44.23030090332031</v>
       </c>
       <c r="C323" t="n">
         <v>46.59333419799805</v>
@@ -7885,7 +7885,7 @@
         <v>44298</v>
       </c>
       <c r="B324" t="n">
-        <v>44.23663330078125</v>
+        <v>44.23662185668945</v>
       </c>
       <c r="C324" t="n">
         <v>46.59999847412109</v>
@@ -7908,7 +7908,7 @@
         <v>44299</v>
       </c>
       <c r="B325" t="n">
-        <v>44.10057067871094</v>
+        <v>44.10056686401367</v>
       </c>
       <c r="C325" t="n">
         <v>46.45666885375977</v>
@@ -7931,7 +7931,7 @@
         <v>44300</v>
       </c>
       <c r="B326" t="n">
-        <v>44.08474349975586</v>
+        <v>44.08475112915039</v>
       </c>
       <c r="C326" t="n">
         <v>46.43999862670898</v>
@@ -7977,7 +7977,7 @@
         <v>44302</v>
       </c>
       <c r="B328" t="n">
-        <v>44.4929313659668</v>
+        <v>44.49293518066406</v>
       </c>
       <c r="C328" t="n">
         <v>46.86999893188477</v>
@@ -8000,7 +8000,7 @@
         <v>44305</v>
       </c>
       <c r="B329" t="n">
-        <v>44.20814514160156</v>
+        <v>44.20814895629883</v>
       </c>
       <c r="C329" t="n">
         <v>46.56999969482422</v>
@@ -8046,7 +8046,7 @@
         <v>44307</v>
       </c>
       <c r="B331" t="n">
-        <v>44.67963409423828</v>
+        <v>44.67962265014648</v>
       </c>
       <c r="C331" t="n">
         <v>47.06666564941406</v>
@@ -8069,7 +8069,7 @@
         <v>44308</v>
       </c>
       <c r="B332" t="n">
-        <v>44.19549179077148</v>
+        <v>44.19549560546875</v>
       </c>
       <c r="C332" t="n">
         <v>46.55666732788086</v>
@@ -8092,7 +8092,7 @@
         <v>44309</v>
       </c>
       <c r="B333" t="n">
-        <v>44.26826477050781</v>
+        <v>44.26827621459961</v>
       </c>
       <c r="C333" t="n">
         <v>46.63333129882812</v>
@@ -8138,7 +8138,7 @@
         <v>44313</v>
       </c>
       <c r="B335" t="n">
-        <v>43.78730392456055</v>
+        <v>43.78729629516602</v>
       </c>
       <c r="C335" t="n">
         <v>46.12666702270508</v>
@@ -8161,7 +8161,7 @@
         <v>44314</v>
       </c>
       <c r="B336" t="n">
-        <v>43.63225555419922</v>
+        <v>43.63225936889648</v>
       </c>
       <c r="C336" t="n">
         <v>45.96333312988281</v>
@@ -8184,7 +8184,7 @@
         <v>44315</v>
       </c>
       <c r="B337" t="n">
-        <v>44.18282318115234</v>
+        <v>44.18283462524414</v>
       </c>
       <c r="C337" t="n">
         <v>46.54333114624023</v>
@@ -8230,7 +8230,7 @@
         <v>44319</v>
       </c>
       <c r="B339" t="n">
-        <v>44.97073745727539</v>
+        <v>44.97074127197266</v>
       </c>
       <c r="C339" t="n">
         <v>47.37333297729492</v>
@@ -8276,7 +8276,7 @@
         <v>44321</v>
       </c>
       <c r="B341" t="n">
-        <v>44.48976898193359</v>
+        <v>44.48977661132812</v>
       </c>
       <c r="C341" t="n">
         <v>46.86666870117188</v>
@@ -8299,7 +8299,7 @@
         <v>44322</v>
       </c>
       <c r="B342" t="n">
-        <v>44.80744171142578</v>
+        <v>44.80743408203125</v>
       </c>
       <c r="C342" t="n">
         <v>47.01666641235352</v>
@@ -8322,7 +8322,7 @@
         <v>44323</v>
       </c>
       <c r="B343" t="n">
-        <v>44.53741455078125</v>
+        <v>44.53741836547852</v>
       </c>
       <c r="C343" t="n">
         <v>46.73333358764648</v>
@@ -8345,7 +8345,7 @@
         <v>44326</v>
       </c>
       <c r="B344" t="n">
-        <v>44.73437118530273</v>
+        <v>44.7343864440918</v>
       </c>
       <c r="C344" t="n">
         <v>46.93999862670898</v>
@@ -8391,7 +8391,7 @@
         <v>44328</v>
       </c>
       <c r="B346" t="n">
-        <v>43.18414688110352</v>
+        <v>43.18413925170898</v>
       </c>
       <c r="C346" t="n">
         <v>45.31333160400391</v>
@@ -8437,7 +8437,7 @@
         <v>44330</v>
       </c>
       <c r="B348" t="n">
-        <v>44.32140731811523</v>
+        <v>44.3214111328125</v>
       </c>
       <c r="C348" t="n">
         <v>46.50666809082031</v>
@@ -8460,7 +8460,7 @@
         <v>44333</v>
       </c>
       <c r="B349" t="n">
-        <v>44.12126922607422</v>
+        <v>44.12127685546875</v>
       </c>
       <c r="C349" t="n">
         <v>46.29666519165039</v>
@@ -8483,7 +8483,7 @@
         <v>44334</v>
       </c>
       <c r="B350" t="n">
-        <v>45.08064270019531</v>
+        <v>45.08063888549805</v>
       </c>
       <c r="C350" t="n">
         <v>47.3033332824707</v>
@@ -8529,7 +8529,7 @@
         <v>44336</v>
       </c>
       <c r="B352" t="n">
-        <v>45.24264144897461</v>
+        <v>45.24264907836914</v>
       </c>
       <c r="C352" t="n">
         <v>47.47333145141602</v>
@@ -8575,7 +8575,7 @@
         <v>44340</v>
       </c>
       <c r="B354" t="n">
-        <v>45.03298568725586</v>
+        <v>45.03298187255859</v>
       </c>
       <c r="C354" t="n">
         <v>47.25333404541016</v>
@@ -8598,7 +8598,7 @@
         <v>44341</v>
       </c>
       <c r="B355" t="n">
-        <v>45.21723175048828</v>
+        <v>45.21723937988281</v>
       </c>
       <c r="C355" t="n">
         <v>47.4466667175293</v>
@@ -8621,7 +8621,7 @@
         <v>44342</v>
       </c>
       <c r="B356" t="n">
-        <v>45.16323852539062</v>
+        <v>45.16323089599609</v>
       </c>
       <c r="C356" t="n">
         <v>47.38999938964844</v>
@@ -8667,7 +8667,7 @@
         <v>44344</v>
       </c>
       <c r="B358" t="n">
-        <v>45.11876678466797</v>
+        <v>45.11875915527344</v>
       </c>
       <c r="C358" t="n">
         <v>47.34333419799805</v>
@@ -8690,7 +8690,7 @@
         <v>44348</v>
       </c>
       <c r="B359" t="n">
-        <v>45.001220703125</v>
+        <v>45.00122833251953</v>
       </c>
       <c r="C359" t="n">
         <v>47.22000122070312</v>
@@ -8713,7 +8713,7 @@
         <v>44349</v>
       </c>
       <c r="B360" t="n">
-        <v>44.90273666381836</v>
+        <v>44.90274429321289</v>
       </c>
       <c r="C360" t="n">
         <v>47.11666870117188</v>
@@ -8736,7 +8736,7 @@
         <v>44350</v>
       </c>
       <c r="B361" t="n">
-        <v>44.98215866088867</v>
+        <v>44.98216247558594</v>
       </c>
       <c r="C361" t="n">
         <v>47.20000076293945</v>
@@ -8759,7 +8759,7 @@
         <v>44351</v>
       </c>
       <c r="B362" t="n">
-        <v>45.06158065795898</v>
+        <v>45.06158447265625</v>
       </c>
       <c r="C362" t="n">
         <v>47.28333282470703</v>
@@ -8782,7 +8782,7 @@
         <v>44354</v>
       </c>
       <c r="B363" t="n">
-        <v>44.75978851318359</v>
+        <v>44.75979232788086</v>
       </c>
       <c r="C363" t="n">
         <v>46.96666717529297</v>
@@ -8805,7 +8805,7 @@
         <v>44355</v>
       </c>
       <c r="B364" t="n">
-        <v>44.41987991333008</v>
+        <v>44.41988754272461</v>
       </c>
       <c r="C364" t="n">
         <v>46.61000061035156</v>
@@ -8828,7 +8828,7 @@
         <v>44356</v>
       </c>
       <c r="B365" t="n">
-        <v>44.1816291809082</v>
+        <v>44.18163299560547</v>
       </c>
       <c r="C365" t="n">
         <v>46.36000061035156</v>
@@ -8851,7 +8851,7 @@
         <v>44357</v>
       </c>
       <c r="B366" t="n">
-        <v>44.43577194213867</v>
+        <v>44.43577575683594</v>
       </c>
       <c r="C366" t="n">
         <v>46.62666702270508</v>
@@ -8874,7 +8874,7 @@
         <v>44358</v>
       </c>
       <c r="B367" t="n">
-        <v>44.71213531494141</v>
+        <v>44.71214294433594</v>
       </c>
       <c r="C367" t="n">
         <v>46.91666793823242</v>
@@ -8897,7 +8897,7 @@
         <v>44361</v>
       </c>
       <c r="B368" t="n">
-        <v>44.65178298950195</v>
+        <v>44.65177917480469</v>
       </c>
       <c r="C368" t="n">
         <v>46.85333251953125</v>
@@ -8920,7 +8920,7 @@
         <v>44362</v>
       </c>
       <c r="B369" t="n">
-        <v>44.4738883972168</v>
+        <v>44.47388076782227</v>
       </c>
       <c r="C369" t="n">
         <v>46.66666793823242</v>
@@ -8966,7 +8966,7 @@
         <v>44364</v>
       </c>
       <c r="B371" t="n">
-        <v>43.74959564208984</v>
+        <v>43.74959182739258</v>
       </c>
       <c r="C371" t="n">
         <v>45.90666580200195</v>
@@ -9012,7 +9012,7 @@
         <v>44368</v>
       </c>
       <c r="B373" t="n">
-        <v>43.33027648925781</v>
+        <v>43.33026885986328</v>
       </c>
       <c r="C373" t="n">
         <v>45.46666717529297</v>
@@ -9058,7 +9058,7 @@
         <v>44370</v>
       </c>
       <c r="B375" t="n">
-        <v>43.19050216674805</v>
+        <v>43.19049835205078</v>
       </c>
       <c r="C375" t="n">
         <v>45.31999969482422</v>
@@ -9081,7 +9081,7 @@
         <v>44371</v>
       </c>
       <c r="B376" t="n">
-        <v>43.49228286743164</v>
+        <v>43.49227905273438</v>
       </c>
       <c r="C376" t="n">
         <v>45.63666534423828</v>
@@ -9104,7 +9104,7 @@
         <v>44372</v>
       </c>
       <c r="B377" t="n">
-        <v>44.00690841674805</v>
+        <v>44.00690460205078</v>
       </c>
       <c r="C377" t="n">
         <v>46.17666625976562</v>
@@ -9173,7 +9173,7 @@
         <v>44377</v>
       </c>
       <c r="B380" t="n">
-        <v>44.79790878295898</v>
+        <v>44.79791259765625</v>
       </c>
       <c r="C380" t="n">
         <v>47.00666809082031</v>
@@ -9196,7 +9196,7 @@
         <v>44378</v>
       </c>
       <c r="B381" t="n">
-        <v>44.25786590576172</v>
+        <v>44.25787734985352</v>
       </c>
       <c r="C381" t="n">
         <v>46.43999862670898</v>
@@ -9219,7 +9219,7 @@
         <v>44379</v>
       </c>
       <c r="B382" t="n">
-        <v>44.50883865356445</v>
+        <v>44.50883102416992</v>
       </c>
       <c r="C382" t="n">
         <v>46.70333480834961</v>
@@ -9242,7 +9242,7 @@
         <v>44383</v>
       </c>
       <c r="B383" t="n">
-        <v>44.45483016967773</v>
+        <v>44.45482635498047</v>
       </c>
       <c r="C383" t="n">
         <v>46.64666748046875</v>
@@ -9265,7 +9265,7 @@
         <v>44384</v>
       </c>
       <c r="B384" t="n">
-        <v>44.38176345825195</v>
+        <v>44.38176727294922</v>
       </c>
       <c r="C384" t="n">
         <v>46.56999969482422</v>
@@ -9288,7 +9288,7 @@
         <v>44385</v>
       </c>
       <c r="B385" t="n">
-        <v>44.34364318847656</v>
+        <v>44.34363555908203</v>
       </c>
       <c r="C385" t="n">
         <v>46.52999877929688</v>
@@ -9311,7 +9311,7 @@
         <v>44386</v>
       </c>
       <c r="B386" t="n">
-        <v>44.56918334960938</v>
+        <v>44.56918716430664</v>
       </c>
       <c r="C386" t="n">
         <v>46.76666641235352</v>
@@ -9334,7 +9334,7 @@
         <v>44389</v>
       </c>
       <c r="B387" t="n">
-        <v>44.48976516723633</v>
+        <v>44.48977661132812</v>
       </c>
       <c r="C387" t="n">
         <v>46.68333435058594</v>
@@ -9357,7 +9357,7 @@
         <v>44390</v>
       </c>
       <c r="B388" t="n">
-        <v>44.65813827514648</v>
+        <v>44.65814208984375</v>
       </c>
       <c r="C388" t="n">
         <v>46.86000061035156</v>
@@ -9380,7 +9380,7 @@
         <v>44391</v>
       </c>
       <c r="B389" t="n">
-        <v>44.96627807617188</v>
+        <v>44.96627044677734</v>
       </c>
       <c r="C389" t="n">
         <v>47.18333435058594</v>
@@ -9403,7 +9403,7 @@
         <v>44392</v>
       </c>
       <c r="B390" t="n">
-        <v>45.001220703125</v>
+        <v>45.00122833251953</v>
       </c>
       <c r="C390" t="n">
         <v>47.22000122070312</v>
@@ -9426,7 +9426,7 @@
         <v>44393</v>
       </c>
       <c r="B391" t="n">
-        <v>44.96945571899414</v>
+        <v>44.96946334838867</v>
       </c>
       <c r="C391" t="n">
         <v>47.18666839599609</v>
@@ -9449,7 +9449,7 @@
         <v>44396</v>
       </c>
       <c r="B392" t="n">
-        <v>44.8646125793457</v>
+        <v>44.86462783813477</v>
       </c>
       <c r="C392" t="n">
         <v>47.07666778564453</v>
@@ -9472,7 +9472,7 @@
         <v>44397</v>
       </c>
       <c r="B393" t="n">
-        <v>45.06792831420898</v>
+        <v>45.06793594360352</v>
       </c>
       <c r="C393" t="n">
         <v>47.29000091552734</v>
@@ -9495,7 +9495,7 @@
         <v>44398</v>
       </c>
       <c r="B394" t="n">
-        <v>44.8455696105957</v>
+        <v>44.84556579589844</v>
       </c>
       <c r="C394" t="n">
         <v>47.05666732788086</v>
@@ -9541,7 +9541,7 @@
         <v>44400</v>
       </c>
       <c r="B396" t="n">
-        <v>45.24582290649414</v>
+        <v>45.24583053588867</v>
       </c>
       <c r="C396" t="n">
         <v>47.47666549682617</v>
@@ -9587,7 +9587,7 @@
         <v>44404</v>
       </c>
       <c r="B398" t="n">
-        <v>45.31253433227539</v>
+        <v>45.31253814697266</v>
       </c>
       <c r="C398" t="n">
         <v>47.54666519165039</v>
@@ -9633,7 +9633,7 @@
         <v>44406</v>
       </c>
       <c r="B400" t="n">
-        <v>45.18547058105469</v>
+        <v>45.18546676635742</v>
       </c>
       <c r="C400" t="n">
         <v>47.41333389282227</v>
@@ -9679,7 +9679,7 @@
         <v>44410</v>
       </c>
       <c r="B402" t="n">
-        <v>45.17911148071289</v>
+        <v>45.17911911010742</v>
       </c>
       <c r="C402" t="n">
         <v>47.40666580200195</v>
@@ -9725,7 +9725,7 @@
         <v>44412</v>
       </c>
       <c r="B404" t="n">
-        <v>45.37607955932617</v>
+        <v>45.37607574462891</v>
       </c>
       <c r="C404" t="n">
         <v>47.61333465576172</v>
@@ -9748,7 +9748,7 @@
         <v>44413</v>
       </c>
       <c r="B405" t="n">
-        <v>46.2179069519043</v>
+        <v>46.2178955078125</v>
       </c>
       <c r="C405" t="n">
         <v>48.49666595458984</v>
@@ -9771,7 +9771,7 @@
         <v>44414</v>
       </c>
       <c r="B406" t="n">
-        <v>46.13531112670898</v>
+        <v>46.13530731201172</v>
       </c>
       <c r="C406" t="n">
         <v>48.40999984741211</v>
@@ -9794,7 +9794,7 @@
         <v>44417</v>
       </c>
       <c r="B407" t="n">
-        <v>46.24649429321289</v>
+        <v>46.24648666381836</v>
       </c>
       <c r="C407" t="n">
         <v>48.52666854858398</v>
@@ -9817,7 +9817,7 @@
         <v>44418</v>
       </c>
       <c r="B408" t="n">
-        <v>47.23126983642578</v>
+        <v>47.23127365112305</v>
       </c>
       <c r="C408" t="n">
         <v>49.56000137329102</v>
@@ -9840,7 +9840,7 @@
         <v>44419</v>
       </c>
       <c r="B409" t="n">
-        <v>47.65377426147461</v>
+        <v>47.65377044677734</v>
       </c>
       <c r="C409" t="n">
         <v>50.00333404541016</v>
@@ -9863,7 +9863,7 @@
         <v>44420</v>
       </c>
       <c r="B410" t="n">
-        <v>47.52623748779297</v>
+        <v>47.5262336730957</v>
       </c>
       <c r="C410" t="n">
         <v>49.68666839599609</v>
@@ -9909,7 +9909,7 @@
         <v>44424</v>
       </c>
       <c r="B412" t="n">
-        <v>48.06507110595703</v>
+        <v>48.0650749206543</v>
       </c>
       <c r="C412" t="n">
         <v>50.25</v>
@@ -9932,7 +9932,7 @@
         <v>44425</v>
       </c>
       <c r="B413" t="n">
-        <v>48.04912948608398</v>
+        <v>48.04913330078125</v>
       </c>
       <c r="C413" t="n">
         <v>50.23333358764648</v>
@@ -9978,7 +9978,7 @@
         <v>44427</v>
       </c>
       <c r="B415" t="n">
-        <v>47.86101913452148</v>
+        <v>47.86101531982422</v>
       </c>
       <c r="C415" t="n">
         <v>50.03666687011719</v>
@@ -10001,7 +10001,7 @@
         <v>44428</v>
       </c>
       <c r="B416" t="n">
-        <v>48.28826141357422</v>
+        <v>48.28825759887695</v>
       </c>
       <c r="C416" t="n">
         <v>50.48333358764648</v>
@@ -10024,7 +10024,7 @@
         <v>44431</v>
       </c>
       <c r="B417" t="n">
-        <v>47.96942520141602</v>
+        <v>47.96942138671875</v>
       </c>
       <c r="C417" t="n">
         <v>50.15000152587891</v>
@@ -10070,7 +10070,7 @@
         <v>44433</v>
       </c>
       <c r="B419" t="n">
-        <v>47.49434661865234</v>
+        <v>47.49435424804688</v>
       </c>
       <c r="C419" t="n">
         <v>49.6533317565918</v>
@@ -10093,7 +10093,7 @@
         <v>44434</v>
       </c>
       <c r="B420" t="n">
-        <v>46.98101806640625</v>
+        <v>46.98102569580078</v>
       </c>
       <c r="C420" t="n">
         <v>49.11666870117188</v>
@@ -10139,7 +10139,7 @@
         <v>44438</v>
       </c>
       <c r="B422" t="n">
-        <v>47.09260940551758</v>
+        <v>47.09261703491211</v>
       </c>
       <c r="C422" t="n">
         <v>49.23333358764648</v>
@@ -10185,7 +10185,7 @@
         <v>44440</v>
       </c>
       <c r="B424" t="n">
-        <v>47.11811447143555</v>
+        <v>47.11811065673828</v>
       </c>
       <c r="C424" t="n">
         <v>49.2599983215332</v>
@@ -10208,7 +10208,7 @@
         <v>44441</v>
       </c>
       <c r="B425" t="n">
-        <v>47.36681365966797</v>
+        <v>47.3668098449707</v>
       </c>
       <c r="C425" t="n">
         <v>49.52000045776367</v>
@@ -10231,7 +10231,7 @@
         <v>44442</v>
       </c>
       <c r="B426" t="n">
-        <v>47.58682250976562</v>
+        <v>47.58681106567383</v>
       </c>
       <c r="C426" t="n">
         <v>49.75</v>
@@ -10277,7 +10277,7 @@
         <v>44447</v>
       </c>
       <c r="B428" t="n">
-        <v>47.01608657836914</v>
+        <v>47.01609420776367</v>
       </c>
       <c r="C428" t="n">
         <v>49.1533317565918</v>
@@ -10300,7 +10300,7 @@
         <v>44448</v>
       </c>
       <c r="B429" t="n">
-        <v>46.68449401855469</v>
+        <v>46.68449783325195</v>
       </c>
       <c r="C429" t="n">
         <v>48.80666732788086</v>
@@ -10323,7 +10323,7 @@
         <v>44449</v>
       </c>
       <c r="B430" t="n">
-        <v>46.51551055908203</v>
+        <v>46.5155143737793</v>
       </c>
       <c r="C430" t="n">
         <v>48.63000106811523</v>
@@ -10346,7 +10346,7 @@
         <v>44452</v>
       </c>
       <c r="B431" t="n">
-        <v>46.25087738037109</v>
+        <v>46.25087356567383</v>
       </c>
       <c r="C431" t="n">
         <v>48.35333251953125</v>
@@ -10369,7 +10369,7 @@
         <v>44453</v>
       </c>
       <c r="B432" t="n">
-        <v>46.0085563659668</v>
+        <v>46.00855255126953</v>
       </c>
       <c r="C432" t="n">
         <v>48.09999847412109</v>
@@ -10415,7 +10415,7 @@
         <v>44455</v>
       </c>
       <c r="B434" t="n">
-        <v>46.24131393432617</v>
+        <v>46.24130630493164</v>
       </c>
       <c r="C434" t="n">
         <v>48.34333419799805</v>
@@ -10484,7 +10484,7 @@
         <v>44460</v>
       </c>
       <c r="B437" t="n">
-        <v>45.60044097900391</v>
+        <v>45.60043716430664</v>
       </c>
       <c r="C437" t="n">
         <v>47.67333221435547</v>
@@ -10507,7 +10507,7 @@
         <v>44461</v>
       </c>
       <c r="B438" t="n">
-        <v>45.49522018432617</v>
+        <v>45.4952278137207</v>
       </c>
       <c r="C438" t="n">
         <v>47.56333160400391</v>
@@ -10530,7 +10530,7 @@
         <v>44462</v>
       </c>
       <c r="B439" t="n">
-        <v>45.52072906494141</v>
+        <v>45.52073287963867</v>
       </c>
       <c r="C439" t="n">
         <v>47.59000015258789</v>
@@ -10553,7 +10553,7 @@
         <v>44463</v>
       </c>
       <c r="B440" t="n">
-        <v>45.64826965332031</v>
+        <v>45.64826202392578</v>
       </c>
       <c r="C440" t="n">
         <v>47.72333145141602</v>
@@ -10576,7 +10576,7 @@
         <v>44466</v>
       </c>
       <c r="B441" t="n">
-        <v>45.35494232177734</v>
+        <v>45.35493469238281</v>
       </c>
       <c r="C441" t="n">
         <v>47.41666793823242</v>
@@ -10622,7 +10622,7 @@
         <v>44468</v>
       </c>
       <c r="B443" t="n">
-        <v>44.77783584594727</v>
+        <v>44.77782821655273</v>
       </c>
       <c r="C443" t="n">
         <v>46.81333160400391</v>
@@ -10645,7 +10645,7 @@
         <v>44469</v>
       </c>
       <c r="B444" t="n">
-        <v>44.43986892700195</v>
+        <v>44.43987274169922</v>
       </c>
       <c r="C444" t="n">
         <v>46.45999908447266</v>
@@ -10691,7 +10691,7 @@
         <v>44473</v>
       </c>
       <c r="B446" t="n">
-        <v>43.27609634399414</v>
+        <v>43.27610397338867</v>
       </c>
       <c r="C446" t="n">
         <v>45.24333190917969</v>
@@ -10714,7 +10714,7 @@
         <v>44474</v>
       </c>
       <c r="B447" t="n">
-        <v>43.55987167358398</v>
+        <v>43.55986785888672</v>
       </c>
       <c r="C447" t="n">
         <v>45.54000091552734</v>
@@ -10737,7 +10737,7 @@
         <v>44475</v>
       </c>
       <c r="B448" t="n">
-        <v>43.87871170043945</v>
+        <v>43.87871551513672</v>
       </c>
       <c r="C448" t="n">
         <v>45.87333297729492</v>
@@ -10806,7 +10806,7 @@
         <v>44480</v>
       </c>
       <c r="B451" t="n">
-        <v>44.48768615722656</v>
+        <v>44.4876823425293</v>
       </c>
       <c r="C451" t="n">
         <v>46.5099983215332</v>
@@ -10829,7 +10829,7 @@
         <v>44481</v>
       </c>
       <c r="B452" t="n">
-        <v>44.43986892700195</v>
+        <v>44.43987274169922</v>
       </c>
       <c r="C452" t="n">
         <v>46.45999908447266</v>
@@ -10852,7 +10852,7 @@
         <v>44482</v>
       </c>
       <c r="B453" t="n">
-        <v>44.11783981323242</v>
+        <v>44.11783599853516</v>
       </c>
       <c r="C453" t="n">
         <v>46.12333297729492</v>
@@ -10875,7 +10875,7 @@
         <v>44483</v>
       </c>
       <c r="B454" t="n">
-        <v>44.59609985351562</v>
+        <v>44.59609603881836</v>
       </c>
       <c r="C454" t="n">
         <v>46.62333297729492</v>
@@ -10898,7 +10898,7 @@
         <v>44484</v>
       </c>
       <c r="B455" t="n">
-        <v>44.81291198730469</v>
+        <v>44.81290054321289</v>
       </c>
       <c r="C455" t="n">
         <v>46.84999847412109</v>
@@ -10921,7 +10921,7 @@
         <v>44487</v>
       </c>
       <c r="B456" t="n">
-        <v>45.17319869995117</v>
+        <v>45.17319488525391</v>
       </c>
       <c r="C456" t="n">
         <v>47.22666549682617</v>
@@ -10944,7 +10944,7 @@
         <v>44488</v>
       </c>
       <c r="B457" t="n">
-        <v>46.13289642333984</v>
+        <v>46.13290786743164</v>
       </c>
       <c r="C457" t="n">
         <v>48.22999954223633</v>
@@ -10967,7 +10967,7 @@
         <v>44489</v>
       </c>
       <c r="B458" t="n">
-        <v>46.55058670043945</v>
+        <v>46.55058288574219</v>
       </c>
       <c r="C458" t="n">
         <v>48.66666793823242</v>
@@ -10990,7 +10990,7 @@
         <v>44490</v>
       </c>
       <c r="B459" t="n">
-        <v>46.80884552001953</v>
+        <v>46.80885696411133</v>
       </c>
       <c r="C459" t="n">
         <v>48.93666839599609</v>
@@ -11013,7 +11013,7 @@
         <v>44491</v>
       </c>
       <c r="B460" t="n">
-        <v>47.29666519165039</v>
+        <v>47.29667663574219</v>
       </c>
       <c r="C460" t="n">
         <v>49.4466667175293</v>
@@ -11036,7 +11036,7 @@
         <v>44494</v>
       </c>
       <c r="B461" t="n">
-        <v>47.8450813293457</v>
+        <v>47.84507751464844</v>
       </c>
       <c r="C461" t="n">
         <v>50.02000045776367</v>
@@ -11059,7 +11059,7 @@
         <v>44495</v>
       </c>
       <c r="B462" t="n">
-        <v>47.42739486694336</v>
+        <v>47.42738723754883</v>
       </c>
       <c r="C462" t="n">
         <v>49.58333206176758</v>
@@ -11082,7 +11082,7 @@
         <v>44496</v>
       </c>
       <c r="B463" t="n">
-        <v>47.03840255737305</v>
+        <v>47.03841018676758</v>
       </c>
       <c r="C463" t="n">
         <v>49.17666625976562</v>
@@ -11105,7 +11105,7 @@
         <v>44497</v>
       </c>
       <c r="B464" t="n">
-        <v>47.33173751831055</v>
+        <v>47.33174133300781</v>
       </c>
       <c r="C464" t="n">
         <v>49.48333358764648</v>
@@ -11128,7 +11128,7 @@
         <v>44498</v>
       </c>
       <c r="B465" t="n">
-        <v>47.64101409912109</v>
+        <v>47.64101791381836</v>
       </c>
       <c r="C465" t="n">
         <v>49.80666732788086</v>
@@ -11151,7 +11151,7 @@
         <v>44501</v>
       </c>
       <c r="B466" t="n">
-        <v>47.75899124145508</v>
+        <v>47.75898361206055</v>
       </c>
       <c r="C466" t="n">
         <v>49.93000030517578</v>
@@ -11174,7 +11174,7 @@
         <v>44502</v>
       </c>
       <c r="B467" t="n">
-        <v>47.73666763305664</v>
+        <v>47.73667144775391</v>
       </c>
       <c r="C467" t="n">
         <v>49.90666580200195</v>
@@ -11197,7 +11197,7 @@
         <v>44503</v>
       </c>
       <c r="B468" t="n">
-        <v>47.88334274291992</v>
+        <v>47.88333511352539</v>
       </c>
       <c r="C468" t="n">
         <v>50.06000137329102</v>
@@ -11220,7 +11220,7 @@
         <v>44504</v>
       </c>
       <c r="B469" t="n">
-        <v>48.23405456542969</v>
+        <v>48.23405838012695</v>
       </c>
       <c r="C469" t="n">
         <v>50.42666625976562</v>
@@ -11243,7 +11243,7 @@
         <v>44505</v>
       </c>
       <c r="B470" t="n">
-        <v>47.89927673339844</v>
+        <v>47.8992805480957</v>
       </c>
       <c r="C470" t="n">
         <v>50.07666778564453</v>
@@ -11266,7 +11266,7 @@
         <v>44508</v>
       </c>
       <c r="B471" t="n">
-        <v>47.59318542480469</v>
+        <v>47.59318923950195</v>
       </c>
       <c r="C471" t="n">
         <v>49.75666809082031</v>
@@ -11289,7 +11289,7 @@
         <v>44509</v>
       </c>
       <c r="B472" t="n">
-        <v>47.75899124145508</v>
+        <v>47.75898361206055</v>
       </c>
       <c r="C472" t="n">
         <v>49.93000030517578</v>
@@ -11312,7 +11312,7 @@
         <v>44510</v>
       </c>
       <c r="B473" t="n">
-        <v>47.32855606079102</v>
+        <v>47.32855224609375</v>
       </c>
       <c r="C473" t="n">
         <v>49.47999954223633</v>
@@ -11335,7 +11335,7 @@
         <v>44511</v>
       </c>
       <c r="B474" t="n">
-        <v>47.34769439697266</v>
+        <v>47.34769058227539</v>
       </c>
       <c r="C474" t="n">
         <v>49.5</v>
@@ -11358,7 +11358,7 @@
         <v>44512</v>
       </c>
       <c r="B475" t="n">
-        <v>47.11174774169922</v>
+        <v>47.11174011230469</v>
       </c>
       <c r="C475" t="n">
         <v>49.25333404541016</v>
@@ -11381,7 +11381,7 @@
         <v>44515</v>
       </c>
       <c r="B476" t="n">
-        <v>46.84073257446289</v>
+        <v>46.84072875976562</v>
       </c>
       <c r="C476" t="n">
         <v>48.97000122070312</v>
@@ -11404,7 +11404,7 @@
         <v>44516</v>
       </c>
       <c r="B477" t="n">
-        <v>45.64826965332031</v>
+        <v>45.64826202392578</v>
       </c>
       <c r="C477" t="n">
         <v>47.72333145141602</v>
@@ -11450,7 +11450,7 @@
         <v>44518</v>
       </c>
       <c r="B479" t="n">
-        <v>45.64508056640625</v>
+        <v>45.64508819580078</v>
       </c>
       <c r="C479" t="n">
         <v>47.72000122070312</v>
@@ -11519,7 +11519,7 @@
         <v>44523</v>
       </c>
       <c r="B482" t="n">
-        <v>46.49000549316406</v>
+        <v>46.48999786376953</v>
       </c>
       <c r="C482" t="n">
         <v>48.60333251953125</v>
@@ -11565,7 +11565,7 @@
         <v>44526</v>
       </c>
       <c r="B484" t="n">
-        <v>46.19985580444336</v>
+        <v>46.19985961914062</v>
       </c>
       <c r="C484" t="n">
         <v>48.29999923706055</v>
@@ -11588,7 +11588,7 @@
         <v>44529</v>
       </c>
       <c r="B485" t="n">
-        <v>45.47609710693359</v>
+        <v>45.47609329223633</v>
       </c>
       <c r="C485" t="n">
         <v>47.54333114624023</v>
@@ -11634,7 +11634,7 @@
         <v>44531</v>
       </c>
       <c r="B487" t="n">
-        <v>43.72566986083984</v>
+        <v>43.72566223144531</v>
       </c>
       <c r="C487" t="n">
         <v>45.71333312988281</v>
@@ -11657,7 +11657,7 @@
         <v>44532</v>
       </c>
       <c r="B488" t="n">
-        <v>43.19320297241211</v>
+        <v>43.19319915771484</v>
       </c>
       <c r="C488" t="n">
         <v>45.15666580200195</v>
@@ -11680,7 +11680,7 @@
         <v>44533</v>
       </c>
       <c r="B489" t="n">
-        <v>43.84364318847656</v>
+        <v>43.84363555908203</v>
       </c>
       <c r="C489" t="n">
         <v>45.83666610717773</v>
@@ -11703,7 +11703,7 @@
         <v>44536</v>
       </c>
       <c r="B490" t="n">
-        <v>44.31870269775391</v>
+        <v>44.31870651245117</v>
       </c>
       <c r="C490" t="n">
         <v>46.33333206176758</v>
@@ -11749,7 +11749,7 @@
         <v>44538</v>
       </c>
       <c r="B492" t="n">
-        <v>43.72884368896484</v>
+        <v>43.72885131835938</v>
       </c>
       <c r="C492" t="n">
         <v>45.71666717529297</v>
@@ -11772,7 +11772,7 @@
         <v>44539</v>
       </c>
       <c r="B493" t="n">
-        <v>44.33708572387695</v>
+        <v>44.33709335327148</v>
       </c>
       <c r="C493" t="n">
         <v>46.16666793823242</v>
@@ -11795,7 +11795,7 @@
         <v>44540</v>
       </c>
       <c r="B494" t="n">
-        <v>45.14699554443359</v>
+        <v>45.14700698852539</v>
       </c>
       <c r="C494" t="n">
         <v>47.0099983215332</v>
@@ -11818,7 +11818,7 @@
         <v>44543</v>
       </c>
       <c r="B495" t="n">
-        <v>45.96011734008789</v>
+        <v>45.96010208129883</v>
       </c>
       <c r="C495" t="n">
         <v>47.85666656494141</v>
@@ -11864,7 +11864,7 @@
         <v>44545</v>
       </c>
       <c r="B497" t="n">
-        <v>46.66438674926758</v>
+        <v>46.66438293457031</v>
       </c>
       <c r="C497" t="n">
         <v>48.59000015258789</v>
@@ -11910,7 +11910,7 @@
         <v>44547</v>
       </c>
       <c r="B499" t="n">
-        <v>44.4171257019043</v>
+        <v>44.41712188720703</v>
       </c>
       <c r="C499" t="n">
         <v>46.25</v>
@@ -11933,7 +11933,7 @@
         <v>44550</v>
       </c>
       <c r="B500" t="n">
-        <v>44.56118011474609</v>
+        <v>44.56117248535156</v>
       </c>
       <c r="C500" t="n">
         <v>46.40000152587891</v>
@@ -11956,7 +11956,7 @@
         <v>44551</v>
       </c>
       <c r="B501" t="n">
-        <v>44.69562530517578</v>
+        <v>44.69562911987305</v>
       </c>
       <c r="C501" t="n">
         <v>46.54000091552734</v>
@@ -11979,7 +11979,7 @@
         <v>44552</v>
       </c>
       <c r="B502" t="n">
-        <v>44.75325012207031</v>
+        <v>44.75324630737305</v>
       </c>
       <c r="C502" t="n">
         <v>46.59999847412109</v>
@@ -12002,7 +12002,7 @@
         <v>44553</v>
       </c>
       <c r="B503" t="n">
-        <v>44.65401458740234</v>
+        <v>44.65401077270508</v>
       </c>
       <c r="C503" t="n">
         <v>46.49666595458984</v>
@@ -12025,7 +12025,7 @@
         <v>44557</v>
       </c>
       <c r="B504" t="n">
-        <v>45.06056976318359</v>
+        <v>45.06056594848633</v>
       </c>
       <c r="C504" t="n">
         <v>46.91999816894531</v>
@@ -12048,7 +12048,7 @@
         <v>44558</v>
       </c>
       <c r="B505" t="n">
-        <v>45.70721435546875</v>
+        <v>45.70721817016602</v>
       </c>
       <c r="C505" t="n">
         <v>47.59333419799805</v>
@@ -12071,7 +12071,7 @@
         <v>44559</v>
       </c>
       <c r="B506" t="n">
-        <v>45.684814453125</v>
+        <v>45.68480682373047</v>
       </c>
       <c r="C506" t="n">
         <v>47.56999969482422</v>
@@ -12094,7 +12094,7 @@
         <v>44560</v>
       </c>
       <c r="B507" t="n">
-        <v>45.83206558227539</v>
+        <v>45.83206176757812</v>
       </c>
       <c r="C507" t="n">
         <v>47.72333145141602</v>
@@ -12140,7 +12140,7 @@
         <v>44564</v>
       </c>
       <c r="B509" t="n">
-        <v>46.30585479736328</v>
+        <v>46.30584716796875</v>
       </c>
       <c r="C509" t="n">
         <v>48.21666717529297</v>
@@ -12163,7 +12163,7 @@
         <v>44565</v>
       </c>
       <c r="B510" t="n">
-        <v>45.45752334594727</v>
+        <v>45.45751953125</v>
       </c>
       <c r="C510" t="n">
         <v>47.33333206176758</v>
@@ -12186,7 +12186,7 @@
         <v>44566</v>
       </c>
       <c r="B511" t="n">
-        <v>46.07215881347656</v>
+        <v>46.0721549987793</v>
       </c>
       <c r="C511" t="n">
         <v>47.97333145141602</v>
@@ -12232,7 +12232,7 @@
         <v>44568</v>
       </c>
       <c r="B513" t="n">
-        <v>46.38266754150391</v>
+        <v>46.38267135620117</v>
       </c>
       <c r="C513" t="n">
         <v>48.29666519165039</v>
@@ -12255,7 +12255,7 @@
         <v>44571</v>
       </c>
       <c r="B514" t="n">
-        <v>46.29304885864258</v>
+        <v>46.29304504394531</v>
       </c>
       <c r="C514" t="n">
         <v>48.20333480834961</v>
@@ -12278,7 +12278,7 @@
         <v>44572</v>
       </c>
       <c r="B515" t="n">
-        <v>46.16178894042969</v>
+        <v>46.16179275512695</v>
       </c>
       <c r="C515" t="n">
         <v>48.06666564941406</v>
@@ -12301,7 +12301,7 @@
         <v>44573</v>
       </c>
       <c r="B516" t="n">
-        <v>45.91849899291992</v>
+        <v>45.91849136352539</v>
       </c>
       <c r="C516" t="n">
         <v>47.81333160400391</v>
@@ -12347,7 +12347,7 @@
         <v>44575</v>
       </c>
       <c r="B518" t="n">
-        <v>46.43709945678711</v>
+        <v>46.43709564208984</v>
       </c>
       <c r="C518" t="n">
         <v>48.35333251953125</v>
@@ -12370,7 +12370,7 @@
         <v>44579</v>
       </c>
       <c r="B519" t="n">
-        <v>45.62398910522461</v>
+        <v>45.62399291992188</v>
       </c>
       <c r="C519" t="n">
         <v>47.50666809082031</v>
@@ -12393,7 +12393,7 @@
         <v>44580</v>
       </c>
       <c r="B520" t="n">
-        <v>46.07855606079102</v>
+        <v>46.07855987548828</v>
       </c>
       <c r="C520" t="n">
         <v>47.97999954223633</v>
@@ -12462,7 +12462,7 @@
         <v>44585</v>
       </c>
       <c r="B523" t="n">
-        <v>44.88130569458008</v>
+        <v>44.88129806518555</v>
       </c>
       <c r="C523" t="n">
         <v>46.73333358764648</v>
@@ -12508,7 +12508,7 @@
         <v>44587</v>
       </c>
       <c r="B525" t="n">
-        <v>43.45673751831055</v>
+        <v>43.45674896240234</v>
       </c>
       <c r="C525" t="n">
         <v>45.25</v>
@@ -12531,7 +12531,7 @@
         <v>44588</v>
       </c>
       <c r="B526" t="n">
-        <v>43.48556137084961</v>
+        <v>43.48555755615234</v>
       </c>
       <c r="C526" t="n">
         <v>45.27999877929688</v>
@@ -12554,7 +12554,7 @@
         <v>44589</v>
       </c>
       <c r="B527" t="n">
-        <v>44.02336502075195</v>
+        <v>44.02337265014648</v>
       </c>
       <c r="C527" t="n">
         <v>45.84000015258789</v>
@@ -12600,7 +12600,7 @@
         <v>44593</v>
       </c>
       <c r="B529" t="n">
-        <v>45.10858154296875</v>
+        <v>45.10858917236328</v>
       </c>
       <c r="C529" t="n">
         <v>46.97000122070312</v>
@@ -12623,7 +12623,7 @@
         <v>44594</v>
       </c>
       <c r="B530" t="n">
-        <v>45.08937454223633</v>
+        <v>45.08937835693359</v>
       </c>
       <c r="C530" t="n">
         <v>46.95000076293945</v>
@@ -12646,7 +12646,7 @@
         <v>44595</v>
       </c>
       <c r="B531" t="n">
-        <v>45.13419342041016</v>
+        <v>45.13419723510742</v>
       </c>
       <c r="C531" t="n">
         <v>46.99666595458984</v>
@@ -12692,7 +12692,7 @@
         <v>44599</v>
       </c>
       <c r="B533" t="n">
-        <v>44.16421890258789</v>
+        <v>44.16422271728516</v>
       </c>
       <c r="C533" t="n">
         <v>45.98666763305664</v>
@@ -12715,7 +12715,7 @@
         <v>44600</v>
       </c>
       <c r="B534" t="n">
-        <v>44.17382049560547</v>
+        <v>44.17382431030273</v>
       </c>
       <c r="C534" t="n">
         <v>45.99666595458984</v>
@@ -12738,7 +12738,7 @@
         <v>44601</v>
       </c>
       <c r="B535" t="n">
-        <v>44.07778930664062</v>
+        <v>44.07779312133789</v>
       </c>
       <c r="C535" t="n">
         <v>45.89666748046875</v>
@@ -12761,7 +12761,7 @@
         <v>44602</v>
       </c>
       <c r="B536" t="n">
-        <v>43.5623893737793</v>
+        <v>43.56239318847656</v>
       </c>
       <c r="C536" t="n">
         <v>45.36000061035156</v>
@@ -12784,7 +12784,7 @@
         <v>44603</v>
       </c>
       <c r="B537" t="n">
-        <v>43.32229995727539</v>
+        <v>43.32229614257812</v>
       </c>
       <c r="C537" t="n">
         <v>45.11000061035156</v>
@@ -12830,7 +12830,7 @@
         <v>44607</v>
       </c>
       <c r="B539" t="n">
-        <v>43.01498031616211</v>
+        <v>43.01497650146484</v>
       </c>
       <c r="C539" t="n">
         <v>44.79000091552734</v>
@@ -12876,7 +12876,7 @@
         <v>44609</v>
       </c>
       <c r="B541" t="n">
-        <v>44.45873641967773</v>
+        <v>44.45873260498047</v>
       </c>
       <c r="C541" t="n">
         <v>46.29333114624023</v>
@@ -12899,7 +12899,7 @@
         <v>44610</v>
       </c>
       <c r="B542" t="n">
-        <v>44.17382049560547</v>
+        <v>44.17382431030273</v>
       </c>
       <c r="C542" t="n">
         <v>45.99666595458984</v>
@@ -12922,7 +12922,7 @@
         <v>44614</v>
       </c>
       <c r="B543" t="n">
-        <v>43.68083953857422</v>
+        <v>43.68082809448242</v>
       </c>
       <c r="C543" t="n">
         <v>45.48333358764648</v>
@@ -12945,7 +12945,7 @@
         <v>44615</v>
       </c>
       <c r="B544" t="n">
-        <v>43.23266220092773</v>
+        <v>43.232666015625</v>
       </c>
       <c r="C544" t="n">
         <v>45.01666641235352</v>
@@ -12968,7 +12968,7 @@
         <v>44616</v>
       </c>
       <c r="B545" t="n">
-        <v>43.06620407104492</v>
+        <v>43.06619644165039</v>
       </c>
       <c r="C545" t="n">
         <v>44.84333419799805</v>
@@ -13060,7 +13060,7 @@
         <v>44622</v>
       </c>
       <c r="B549" t="n">
-        <v>43.58799743652344</v>
+        <v>43.58800506591797</v>
       </c>
       <c r="C549" t="n">
         <v>45.38666534423828</v>
@@ -13083,7 +13083,7 @@
         <v>44623</v>
       </c>
       <c r="B550" t="n">
-        <v>44.58998870849609</v>
+        <v>44.58998107910156</v>
       </c>
       <c r="C550" t="n">
         <v>46.43000030517578</v>
@@ -13106,7 +13106,7 @@
         <v>44624</v>
       </c>
       <c r="B551" t="n">
-        <v>45.72002029418945</v>
+        <v>45.72002410888672</v>
       </c>
       <c r="C551" t="n">
         <v>47.60666656494141</v>
@@ -13129,7 +13129,7 @@
         <v>44627</v>
       </c>
       <c r="B552" t="n">
-        <v>45.35187911987305</v>
+        <v>45.35187530517578</v>
       </c>
       <c r="C552" t="n">
         <v>47.22333145141602</v>
@@ -13152,7 +13152,7 @@
         <v>44628</v>
       </c>
       <c r="B553" t="n">
-        <v>44.41392135620117</v>
+        <v>44.41391372680664</v>
       </c>
       <c r="C553" t="n">
         <v>46.24666595458984</v>
@@ -13175,7 +13175,7 @@
         <v>44629</v>
       </c>
       <c r="B554" t="n">
-        <v>44.64440536499023</v>
+        <v>44.6444091796875</v>
       </c>
       <c r="C554" t="n">
         <v>46.48666763305664</v>
@@ -13221,7 +13221,7 @@
         <v>44631</v>
       </c>
       <c r="B556" t="n">
-        <v>45.47992706298828</v>
+        <v>45.47993087768555</v>
       </c>
       <c r="C556" t="n">
         <v>47.35666656494141</v>
@@ -13244,7 +13244,7 @@
         <v>44634</v>
       </c>
       <c r="B557" t="n">
-        <v>46.11376571655273</v>
+        <v>46.11377334594727</v>
       </c>
       <c r="C557" t="n">
         <v>48.01666641235352</v>
@@ -13267,7 +13267,7 @@
         <v>44635</v>
       </c>
       <c r="B558" t="n">
-        <v>46.66759490966797</v>
+        <v>46.66758346557617</v>
       </c>
       <c r="C558" t="n">
         <v>48.59333419799805</v>
@@ -13290,7 +13290,7 @@
         <v>44636</v>
       </c>
       <c r="B559" t="n">
-        <v>46.52993392944336</v>
+        <v>46.52993011474609</v>
       </c>
       <c r="C559" t="n">
         <v>48.45000076293945</v>
@@ -13313,7 +13313,7 @@
         <v>44637</v>
       </c>
       <c r="B560" t="n">
-        <v>46.60063552856445</v>
+        <v>46.60063171386719</v>
       </c>
       <c r="C560" t="n">
         <v>48.33666610717773</v>
@@ -13359,7 +13359,7 @@
         <v>44641</v>
       </c>
       <c r="B562" t="n">
-        <v>46.3499755859375</v>
+        <v>46.34997177124023</v>
       </c>
       <c r="C562" t="n">
         <v>48.07666778564453</v>
@@ -13382,7 +13382,7 @@
         <v>44642</v>
       </c>
       <c r="B563" t="n">
-        <v>46.2117919921875</v>
+        <v>46.21178817749023</v>
       </c>
       <c r="C563" t="n">
         <v>47.93333435058594</v>
@@ -13405,7 +13405,7 @@
         <v>44643</v>
       </c>
       <c r="B564" t="n">
-        <v>45.61726760864258</v>
+        <v>45.61727142333984</v>
       </c>
       <c r="C564" t="n">
         <v>47.31666564941406</v>
@@ -13428,7 +13428,7 @@
         <v>44644</v>
       </c>
       <c r="B565" t="n">
-        <v>45.90006256103516</v>
+        <v>45.90006637573242</v>
       </c>
       <c r="C565" t="n">
         <v>47.61000061035156</v>
@@ -13451,7 +13451,7 @@
         <v>44645</v>
       </c>
       <c r="B566" t="n">
-        <v>46.09930419921875</v>
+        <v>46.09931182861328</v>
       </c>
       <c r="C566" t="n">
         <v>47.81666564941406</v>
@@ -13474,7 +13474,7 @@
         <v>44648</v>
       </c>
       <c r="B567" t="n">
-        <v>46.91878509521484</v>
+        <v>46.91877746582031</v>
       </c>
       <c r="C567" t="n">
         <v>48.66666793823242</v>
@@ -13497,7 +13497,7 @@
         <v>44649</v>
       </c>
       <c r="B568" t="n">
-        <v>47.31405639648438</v>
+        <v>47.31406021118164</v>
       </c>
       <c r="C568" t="n">
         <v>49.07666778564453</v>
@@ -13543,7 +13543,7 @@
         <v>44651</v>
       </c>
       <c r="B570" t="n">
-        <v>47.85715866088867</v>
+        <v>47.85715484619141</v>
       </c>
       <c r="C570" t="n">
         <v>49.63999938964844</v>
@@ -13566,7 +13566,7 @@
         <v>44652</v>
       </c>
       <c r="B571" t="n">
-        <v>48.52880477905273</v>
+        <v>48.52880096435547</v>
       </c>
       <c r="C571" t="n">
         <v>50.33666610717773</v>
@@ -13589,7 +13589,7 @@
         <v>44655</v>
       </c>
       <c r="B572" t="n">
-        <v>48.53844451904297</v>
+        <v>48.53844833374023</v>
       </c>
       <c r="C572" t="n">
         <v>50.3466682434082</v>
@@ -13612,7 +13612,7 @@
         <v>44656</v>
       </c>
       <c r="B573" t="n">
-        <v>48.67663192749023</v>
+        <v>48.6766357421875</v>
       </c>
       <c r="C573" t="n">
         <v>50.4900016784668</v>
@@ -13635,7 +13635,7 @@
         <v>44657</v>
       </c>
       <c r="B574" t="n">
-        <v>49.80781936645508</v>
+        <v>49.80782318115234</v>
       </c>
       <c r="C574" t="n">
         <v>51.66333389282227</v>
@@ -13681,7 +13681,7 @@
         <v>44659</v>
       </c>
       <c r="B576" t="n">
-        <v>50.58551788330078</v>
+        <v>50.58552169799805</v>
       </c>
       <c r="C576" t="n">
         <v>52.47000122070312</v>
@@ -13704,7 +13704,7 @@
         <v>44662</v>
       </c>
       <c r="B577" t="n">
-        <v>49.58286666870117</v>
+        <v>49.5828742980957</v>
       </c>
       <c r="C577" t="n">
         <v>51.43000030517578</v>
@@ -13727,7 +13727,7 @@
         <v>44663</v>
       </c>
       <c r="B578" t="n">
-        <v>49.24222946166992</v>
+        <v>49.24223327636719</v>
       </c>
       <c r="C578" t="n">
         <v>51.07666778564453</v>
@@ -13750,7 +13750,7 @@
         <v>44664</v>
       </c>
       <c r="B579" t="n">
-        <v>50.52446365356445</v>
+        <v>50.52445602416992</v>
       </c>
       <c r="C579" t="n">
         <v>52.40666580200195</v>
@@ -13773,7 +13773,7 @@
         <v>44665</v>
       </c>
       <c r="B580" t="n">
-        <v>50.47946548461914</v>
+        <v>50.47947311401367</v>
       </c>
       <c r="C580" t="n">
         <v>52.36000061035156</v>
@@ -13819,7 +13819,7 @@
         <v>44670</v>
       </c>
       <c r="B582" t="n">
-        <v>50.66264724731445</v>
+        <v>50.66264343261719</v>
       </c>
       <c r="C582" t="n">
         <v>52.54999923706055</v>
@@ -13842,7 +13842,7 @@
         <v>44671</v>
       </c>
       <c r="B583" t="n">
-        <v>51.2989387512207</v>
+        <v>51.29893493652344</v>
       </c>
       <c r="C583" t="n">
         <v>53.20999908447266</v>
@@ -13865,7 +13865,7 @@
         <v>44672</v>
       </c>
       <c r="B584" t="n">
-        <v>51.37606430053711</v>
+        <v>51.37607192993164</v>
       </c>
       <c r="C584" t="n">
         <v>53.29000091552734</v>
@@ -13888,7 +13888,7 @@
         <v>44673</v>
       </c>
       <c r="B585" t="n">
-        <v>50.40876770019531</v>
+        <v>50.40876388549805</v>
       </c>
       <c r="C585" t="n">
         <v>52.28666687011719</v>
@@ -13911,7 +13911,7 @@
         <v>44676</v>
       </c>
       <c r="B586" t="n">
-        <v>50.43447494506836</v>
+        <v>50.43448257446289</v>
       </c>
       <c r="C586" t="n">
         <v>52.31333160400391</v>
@@ -13934,7 +13934,7 @@
         <v>44677</v>
       </c>
       <c r="B587" t="n">
-        <v>49.90744018554688</v>
+        <v>49.90744781494141</v>
       </c>
       <c r="C587" t="n">
         <v>51.76666641235352</v>
@@ -13957,7 +13957,7 @@
         <v>44678</v>
       </c>
       <c r="B588" t="n">
-        <v>49.56679916381836</v>
+        <v>49.56680297851562</v>
       </c>
       <c r="C588" t="n">
         <v>51.41333389282227</v>
@@ -13980,7 +13980,7 @@
         <v>44679</v>
       </c>
       <c r="B589" t="n">
-        <v>50.19988632202148</v>
+        <v>50.19988250732422</v>
       </c>
       <c r="C589" t="n">
         <v>52.06999969482422</v>
@@ -14003,7 +14003,7 @@
         <v>44680</v>
       </c>
       <c r="B590" t="n">
-        <v>49.16510391235352</v>
+        <v>49.16509628295898</v>
       </c>
       <c r="C590" t="n">
         <v>50.99666595458984</v>
@@ -14026,7 +14026,7 @@
         <v>44683</v>
       </c>
       <c r="B591" t="n">
-        <v>48.84051895141602</v>
+        <v>48.84052658081055</v>
       </c>
       <c r="C591" t="n">
         <v>50.65999984741211</v>
@@ -14049,7 +14049,7 @@
         <v>44684</v>
       </c>
       <c r="B592" t="n">
-        <v>49.01084899902344</v>
+        <v>49.01084136962891</v>
       </c>
       <c r="C592" t="n">
         <v>50.83666610717773</v>
@@ -14118,7 +14118,7 @@
         <v>44687</v>
       </c>
       <c r="B595" t="n">
-        <v>48.2375373840332</v>
+        <v>48.23753356933594</v>
       </c>
       <c r="C595" t="n">
         <v>49.85333251953125</v>
@@ -14141,7 +14141,7 @@
         <v>44690</v>
       </c>
       <c r="B596" t="n">
-        <v>48.80196380615234</v>
+        <v>48.80196762084961</v>
       </c>
       <c r="C596" t="n">
         <v>50.43666839599609</v>
@@ -14164,7 +14164,7 @@
         <v>44691</v>
       </c>
       <c r="B597" t="n">
-        <v>48.11497116088867</v>
+        <v>48.11497497558594</v>
       </c>
       <c r="C597" t="n">
         <v>49.72666549682617</v>
@@ -14187,7 +14187,7 @@
         <v>44692</v>
       </c>
       <c r="B598" t="n">
-        <v>47.61183166503906</v>
+        <v>47.6118278503418</v>
       </c>
       <c r="C598" t="n">
         <v>49.20666885375977</v>
@@ -14210,7 +14210,7 @@
         <v>44693</v>
       </c>
       <c r="B599" t="n">
-        <v>47.56667709350586</v>
+        <v>47.56667327880859</v>
       </c>
       <c r="C599" t="n">
         <v>49.15999984741211</v>
@@ -14233,7 +14233,7 @@
         <v>44694</v>
       </c>
       <c r="B600" t="n">
-        <v>47.75050735473633</v>
+        <v>47.75051498413086</v>
       </c>
       <c r="C600" t="n">
         <v>49.34999847412109</v>
@@ -14256,7 +14256,7 @@
         <v>44697</v>
       </c>
       <c r="B601" t="n">
-        <v>47.80212020874023</v>
+        <v>47.8021240234375</v>
       </c>
       <c r="C601" t="n">
         <v>49.4033317565918</v>
@@ -14279,7 +14279,7 @@
         <v>44698</v>
       </c>
       <c r="B602" t="n">
-        <v>42.36427307128906</v>
+        <v>42.3642692565918</v>
       </c>
       <c r="C602" t="n">
         <v>43.78333282470703</v>
@@ -14325,7 +14325,7 @@
         <v>44700</v>
       </c>
       <c r="B604" t="n">
-        <v>38.40359878540039</v>
+        <v>38.40360641479492</v>
       </c>
       <c r="C604" t="n">
         <v>39.68999862670898</v>
@@ -14348,7 +14348,7 @@
         <v>44701</v>
       </c>
       <c r="B605" t="n">
-        <v>38.44554138183594</v>
+        <v>38.44553756713867</v>
       </c>
       <c r="C605" t="n">
         <v>39.73333358764648</v>
@@ -14394,7 +14394,7 @@
         <v>44705</v>
       </c>
       <c r="B607" t="n">
-        <v>40.03560256958008</v>
+        <v>40.03560638427734</v>
       </c>
       <c r="C607" t="n">
         <v>41.37666702270508</v>
@@ -14417,7 +14417,7 @@
         <v>44706</v>
       </c>
       <c r="B608" t="n">
-        <v>39.79048538208008</v>
+        <v>39.79049301147461</v>
       </c>
       <c r="C608" t="n">
         <v>41.12333297729492</v>
@@ -14463,7 +14463,7 @@
         <v>44708</v>
       </c>
       <c r="B610" t="n">
-        <v>41.43861389160156</v>
+        <v>41.43861770629883</v>
       </c>
       <c r="C610" t="n">
         <v>42.82666778564453</v>
@@ -14509,7 +14509,7 @@
         <v>44713</v>
       </c>
       <c r="B612" t="n">
-        <v>40.46134948730469</v>
+        <v>40.46135330200195</v>
       </c>
       <c r="C612" t="n">
         <v>41.81666564941406</v>
@@ -14532,7 +14532,7 @@
         <v>44714</v>
       </c>
       <c r="B613" t="n">
-        <v>41.12575912475586</v>
+        <v>41.12576293945312</v>
       </c>
       <c r="C613" t="n">
         <v>42.50333404541016</v>
@@ -14578,7 +14578,7 @@
         <v>44718</v>
       </c>
       <c r="B615" t="n">
-        <v>40.27427673339844</v>
+        <v>40.2742805480957</v>
       </c>
       <c r="C615" t="n">
         <v>41.62333297729492</v>
@@ -14601,7 +14601,7 @@
         <v>44719</v>
       </c>
       <c r="B616" t="n">
-        <v>39.79048538208008</v>
+        <v>39.79049301147461</v>
       </c>
       <c r="C616" t="n">
         <v>41.12333297729492</v>
@@ -14624,7 +14624,7 @@
         <v>44720</v>
       </c>
       <c r="B617" t="n">
-        <v>39.44537734985352</v>
+        <v>39.44537353515625</v>
       </c>
       <c r="C617" t="n">
         <v>40.76666641235352</v>
@@ -14647,7 +14647,7 @@
         <v>44721</v>
       </c>
       <c r="B618" t="n">
-        <v>39.03253936767578</v>
+        <v>39.03254318237305</v>
       </c>
       <c r="C618" t="n">
         <v>40.34000015258789</v>
@@ -14670,7 +14670,7 @@
         <v>44722</v>
       </c>
       <c r="B619" t="n">
-        <v>39.25185775756836</v>
+        <v>39.25186157226562</v>
       </c>
       <c r="C619" t="n">
         <v>40.56666564941406</v>
@@ -14693,7 +14693,7 @@
         <v>44725</v>
       </c>
       <c r="B620" t="n">
-        <v>38.51326751708984</v>
+        <v>38.51327133178711</v>
       </c>
       <c r="C620" t="n">
         <v>39.8033332824707</v>
@@ -14716,7 +14716,7 @@
         <v>44726</v>
       </c>
       <c r="B621" t="n">
-        <v>38.52938842773438</v>
+        <v>38.52939224243164</v>
       </c>
       <c r="C621" t="n">
         <v>39.81999969482422</v>
@@ -14739,7 +14739,7 @@
         <v>44727</v>
       </c>
       <c r="B622" t="n">
-        <v>38.50359725952148</v>
+        <v>38.50358200073242</v>
       </c>
       <c r="C622" t="n">
         <v>39.79333114624023</v>
@@ -14785,7 +14785,7 @@
         <v>44729</v>
       </c>
       <c r="B624" t="n">
-        <v>38.15203475952148</v>
+        <v>38.15203857421875</v>
       </c>
       <c r="C624" t="n">
         <v>39.43000030517578</v>
@@ -14831,7 +14831,7 @@
         <v>44734</v>
       </c>
       <c r="B626" t="n">
-        <v>38.92610168457031</v>
+        <v>38.92610549926758</v>
       </c>
       <c r="C626" t="n">
         <v>40.22999954223633</v>
@@ -14854,7 +14854,7 @@
         <v>44735</v>
       </c>
       <c r="B627" t="n">
-        <v>39.87111663818359</v>
+        <v>39.87112045288086</v>
       </c>
       <c r="C627" t="n">
         <v>41.20666885375977</v>
@@ -14877,7 +14877,7 @@
         <v>44736</v>
       </c>
       <c r="B628" t="n">
-        <v>39.90336608886719</v>
+        <v>39.90337371826172</v>
       </c>
       <c r="C628" t="n">
         <v>41.2400016784668</v>
@@ -14900,7 +14900,7 @@
         <v>44739</v>
       </c>
       <c r="B629" t="n">
-        <v>40.03237533569336</v>
+        <v>40.03237915039062</v>
       </c>
       <c r="C629" t="n">
         <v>41.37333297729492</v>
@@ -14923,7 +14923,7 @@
         <v>44740</v>
       </c>
       <c r="B630" t="n">
-        <v>39.46795654296875</v>
+        <v>39.46795272827148</v>
       </c>
       <c r="C630" t="n">
         <v>40.79000091552734</v>
@@ -14992,7 +14992,7 @@
         <v>44743</v>
       </c>
       <c r="B633" t="n">
-        <v>39.55181884765625</v>
+        <v>39.55181121826172</v>
       </c>
       <c r="C633" t="n">
         <v>40.87666702270508</v>
@@ -15015,7 +15015,7 @@
         <v>44747</v>
       </c>
       <c r="B634" t="n">
-        <v>40.07430648803711</v>
+        <v>40.07431411743164</v>
       </c>
       <c r="C634" t="n">
         <v>41.41666793823242</v>
@@ -15038,7 +15038,7 @@
         <v>44748</v>
       </c>
       <c r="B635" t="n">
-        <v>40.35813903808594</v>
+        <v>40.35813522338867</v>
       </c>
       <c r="C635" t="n">
         <v>41.70999908447266</v>
@@ -15084,7 +15084,7 @@
         <v>44750</v>
       </c>
       <c r="B637" t="n">
-        <v>40.44521713256836</v>
+        <v>40.44521331787109</v>
       </c>
       <c r="C637" t="n">
         <v>41.79999923706055</v>
@@ -15107,7 +15107,7 @@
         <v>44753</v>
       </c>
       <c r="B638" t="n">
-        <v>40.46134948730469</v>
+        <v>40.46135330200195</v>
       </c>
       <c r="C638" t="n">
         <v>41.81666564941406</v>
@@ -15130,7 +15130,7 @@
         <v>44754</v>
       </c>
       <c r="B639" t="n">
-        <v>40.33878326416016</v>
+        <v>40.33878707885742</v>
       </c>
       <c r="C639" t="n">
         <v>41.68999862670898</v>
@@ -15153,7 +15153,7 @@
         <v>44755</v>
       </c>
       <c r="B640" t="n">
-        <v>40.43554306030273</v>
+        <v>40.435546875</v>
       </c>
       <c r="C640" t="n">
         <v>41.79000091552734</v>
@@ -15176,7 +15176,7 @@
         <v>44756</v>
       </c>
       <c r="B641" t="n">
-        <v>41.22574615478516</v>
+        <v>41.22573852539062</v>
       </c>
       <c r="C641" t="n">
         <v>42.60666656494141</v>
@@ -15199,7 +15199,7 @@
         <v>44757</v>
       </c>
       <c r="B642" t="n">
-        <v>41.62890625</v>
+        <v>41.62890243530273</v>
       </c>
       <c r="C642" t="n">
         <v>43.02333450317383</v>
@@ -15245,7 +15245,7 @@
         <v>44761</v>
       </c>
       <c r="B644" t="n">
-        <v>41.78694152832031</v>
+        <v>41.78694534301758</v>
       </c>
       <c r="C644" t="n">
         <v>43.18666839599609</v>
@@ -15291,7 +15291,7 @@
         <v>44763</v>
       </c>
       <c r="B646" t="n">
-        <v>42.75130462646484</v>
+        <v>42.75130844116211</v>
       </c>
       <c r="C646" t="n">
         <v>44.18333435058594</v>
@@ -15314,7 +15314,7 @@
         <v>44764</v>
       </c>
       <c r="B647" t="n">
-        <v>42.64164733886719</v>
+        <v>42.64164352416992</v>
       </c>
       <c r="C647" t="n">
         <v>44.06999969482422</v>
@@ -15337,7 +15337,7 @@
         <v>44767</v>
       </c>
       <c r="B648" t="n">
-        <v>42.58036804199219</v>
+        <v>42.58036422729492</v>
       </c>
       <c r="C648" t="n">
         <v>44.00666809082031</v>
@@ -15383,7 +15383,7 @@
         <v>44769</v>
       </c>
       <c r="B650" t="n">
-        <v>40.82903671264648</v>
+        <v>40.82903289794922</v>
       </c>
       <c r="C650" t="n">
         <v>42.1966667175293</v>
@@ -15429,7 +15429,7 @@
         <v>44771</v>
       </c>
       <c r="B652" t="n">
-        <v>42.59004592895508</v>
+        <v>42.59003829956055</v>
       </c>
       <c r="C652" t="n">
         <v>44.01666641235352</v>
@@ -15452,7 +15452,7 @@
         <v>44774</v>
       </c>
       <c r="B653" t="n">
-        <v>42.74808120727539</v>
+        <v>42.74807739257812</v>
       </c>
       <c r="C653" t="n">
         <v>44.18000030517578</v>
@@ -15475,7 +15475,7 @@
         <v>44775</v>
       </c>
       <c r="B654" t="n">
-        <v>42.79322814941406</v>
+        <v>42.79323196411133</v>
       </c>
       <c r="C654" t="n">
         <v>44.22666549682617</v>
@@ -15498,7 +15498,7 @@
         <v>44776</v>
       </c>
       <c r="B655" t="n">
-        <v>42.09011459350586</v>
+        <v>42.09012222290039</v>
       </c>
       <c r="C655" t="n">
         <v>43.5</v>
@@ -15521,7 +15521,7 @@
         <v>44777</v>
       </c>
       <c r="B656" t="n">
-        <v>40.50004577636719</v>
+        <v>40.50004959106445</v>
       </c>
       <c r="C656" t="n">
         <v>41.85666656494141</v>
@@ -15544,7 +15544,7 @@
         <v>44778</v>
       </c>
       <c r="B657" t="n">
-        <v>40.82579803466797</v>
+        <v>40.82580184936523</v>
       </c>
       <c r="C657" t="n">
         <v>42.19333267211914</v>
@@ -15567,7 +15567,7 @@
         <v>44781</v>
       </c>
       <c r="B658" t="n">
-        <v>41.15800857543945</v>
+        <v>41.15801239013672</v>
       </c>
       <c r="C658" t="n">
         <v>42.53666687011719</v>
@@ -15613,7 +15613,7 @@
         <v>44783</v>
       </c>
       <c r="B660" t="n">
-        <v>41.65147399902344</v>
+        <v>41.65148544311523</v>
       </c>
       <c r="C660" t="n">
         <v>43.04666519165039</v>
@@ -15636,7 +15636,7 @@
         <v>44784</v>
       </c>
       <c r="B661" t="n">
-        <v>42.05315780639648</v>
+        <v>42.05316162109375</v>
       </c>
       <c r="C661" t="n">
         <v>43.27333450317383</v>
@@ -15682,7 +15682,7 @@
         <v>44788</v>
       </c>
       <c r="B663" t="n">
-        <v>42.95370101928711</v>
+        <v>42.95369720458984</v>
       </c>
       <c r="C663" t="n">
         <v>44.20000076293945</v>
@@ -15728,7 +15728,7 @@
         <v>44790</v>
       </c>
       <c r="B665" t="n">
-        <v>45.1953239440918</v>
+        <v>45.19532012939453</v>
       </c>
       <c r="C665" t="n">
         <v>46.50666809082031</v>
@@ -15774,7 +15774,7 @@
         <v>44792</v>
       </c>
       <c r="B667" t="n">
-        <v>44.38547897338867</v>
+        <v>44.38548278808594</v>
       </c>
       <c r="C667" t="n">
         <v>45.67333221435547</v>
@@ -15797,7 +15797,7 @@
         <v>44795</v>
       </c>
       <c r="B668" t="n">
-        <v>43.59185028076172</v>
+        <v>43.59184646606445</v>
       </c>
       <c r="C668" t="n">
         <v>44.85666656494141</v>
@@ -15843,7 +15843,7 @@
         <v>44797</v>
       </c>
       <c r="B670" t="n">
-        <v>43.72142028808594</v>
+        <v>43.7214241027832</v>
       </c>
       <c r="C670" t="n">
         <v>44.9900016784668</v>
@@ -15866,7 +15866,7 @@
         <v>44798</v>
       </c>
       <c r="B671" t="n">
-        <v>44.01296615600586</v>
+        <v>44.01296234130859</v>
       </c>
       <c r="C671" t="n">
         <v>45.29000091552734</v>
@@ -15889,7 +15889,7 @@
         <v>44799</v>
       </c>
       <c r="B672" t="n">
-        <v>42.6297607421875</v>
+        <v>42.62976455688477</v>
       </c>
       <c r="C672" t="n">
         <v>43.86666870117188</v>
@@ -15912,7 +15912,7 @@
         <v>44802</v>
       </c>
       <c r="B673" t="n">
-        <v>43.04439544677734</v>
+        <v>43.04439163208008</v>
       </c>
       <c r="C673" t="n">
         <v>44.29333114624023</v>
@@ -15935,7 +15935,7 @@
         <v>44803</v>
       </c>
       <c r="B674" t="n">
-        <v>42.91482925415039</v>
+        <v>42.91482162475586</v>
       </c>
       <c r="C674" t="n">
         <v>44.15999984741211</v>
@@ -15958,7 +15958,7 @@
         <v>44804</v>
       </c>
       <c r="B675" t="n">
-        <v>42.93749618530273</v>
+        <v>42.93750381469727</v>
       </c>
       <c r="C675" t="n">
         <v>44.18333435058594</v>
@@ -15981,7 +15981,7 @@
         <v>44805</v>
       </c>
       <c r="B676" t="n">
-        <v>43.56269073486328</v>
+        <v>43.56269836425781</v>
       </c>
       <c r="C676" t="n">
         <v>44.82666778564453</v>
@@ -16027,7 +16027,7 @@
         <v>44810</v>
       </c>
       <c r="B678" t="n">
-        <v>42.86947250366211</v>
+        <v>42.86946868896484</v>
       </c>
       <c r="C678" t="n">
         <v>44.11333465576172</v>
@@ -16050,7 +16050,7 @@
         <v>44811</v>
       </c>
       <c r="B679" t="n">
-        <v>43.97084808349609</v>
+        <v>43.97084426879883</v>
       </c>
       <c r="C679" t="n">
         <v>45.24666595458984</v>
@@ -16165,7 +16165,7 @@
         <v>44818</v>
       </c>
       <c r="B684" t="n">
-        <v>43.70522308349609</v>
+        <v>43.70522689819336</v>
       </c>
       <c r="C684" t="n">
         <v>44.97333145141602</v>
@@ -16188,7 +16188,7 @@
         <v>44819</v>
       </c>
       <c r="B685" t="n">
-        <v>43.23552322387695</v>
+        <v>43.23551940917969</v>
       </c>
       <c r="C685" t="n">
         <v>44.4900016784668</v>
@@ -16211,7 +16211,7 @@
         <v>44820</v>
       </c>
       <c r="B686" t="n">
-        <v>43.14481735229492</v>
+        <v>43.14481353759766</v>
       </c>
       <c r="C686" t="n">
         <v>44.39666748046875</v>
@@ -16234,7 +16234,7 @@
         <v>44823</v>
       </c>
       <c r="B687" t="n">
-        <v>43.51410293579102</v>
+        <v>43.51410675048828</v>
       </c>
       <c r="C687" t="n">
         <v>44.77666854858398</v>
@@ -16280,7 +16280,7 @@
         <v>44825</v>
       </c>
       <c r="B689" t="n">
-        <v>43.65663146972656</v>
+        <v>43.65663528442383</v>
       </c>
       <c r="C689" t="n">
         <v>44.92333221435547</v>
@@ -16326,7 +16326,7 @@
         <v>44827</v>
       </c>
       <c r="B691" t="n">
-        <v>42.13090515136719</v>
+        <v>42.13089752197266</v>
       </c>
       <c r="C691" t="n">
         <v>43.35333251953125</v>
@@ -16395,7 +16395,7 @@
         <v>44832</v>
       </c>
       <c r="B694" t="n">
-        <v>43.11890411376953</v>
+        <v>43.11890029907227</v>
       </c>
       <c r="C694" t="n">
         <v>44.36999893188477</v>
@@ -16418,7 +16418,7 @@
         <v>44833</v>
       </c>
       <c r="B695" t="n">
-        <v>42.84031677246094</v>
+        <v>42.84031295776367</v>
       </c>
       <c r="C695" t="n">
         <v>44.08333206176758</v>
@@ -16441,7 +16441,7 @@
         <v>44834</v>
       </c>
       <c r="B696" t="n">
-        <v>42.01428985595703</v>
+        <v>42.01428604125977</v>
       </c>
       <c r="C696" t="n">
         <v>43.23333358764648</v>
@@ -16464,7 +16464,7 @@
         <v>44837</v>
       </c>
       <c r="B697" t="n">
-        <v>42.93102264404297</v>
+        <v>42.9310188293457</v>
       </c>
       <c r="C697" t="n">
         <v>44.17666625976562</v>
@@ -16510,7 +16510,7 @@
         <v>44839</v>
       </c>
       <c r="B699" t="n">
-        <v>43.05735015869141</v>
+        <v>43.05735397338867</v>
       </c>
       <c r="C699" t="n">
         <v>44.30666732788086</v>
@@ -16533,7 +16533,7 @@
         <v>44840</v>
       </c>
       <c r="B700" t="n">
-        <v>42.65568161010742</v>
+        <v>42.65567779541016</v>
       </c>
       <c r="C700" t="n">
         <v>43.89333343505859</v>
@@ -16556,7 +16556,7 @@
         <v>44841</v>
       </c>
       <c r="B701" t="n">
-        <v>41.64500427246094</v>
+        <v>41.64499664306641</v>
       </c>
       <c r="C701" t="n">
         <v>42.85333251953125</v>
@@ -16579,7 +16579,7 @@
         <v>44844</v>
       </c>
       <c r="B702" t="n">
-        <v>41.89119338989258</v>
+        <v>41.89118957519531</v>
       </c>
       <c r="C702" t="n">
         <v>43.10666656494141</v>
@@ -16602,7 +16602,7 @@
         <v>44845</v>
       </c>
       <c r="B703" t="n">
-        <v>42.97637557983398</v>
+        <v>42.97636413574219</v>
       </c>
       <c r="C703" t="n">
         <v>44.22333145141602</v>
@@ -16625,7 +16625,7 @@
         <v>44846</v>
       </c>
       <c r="B704" t="n">
-        <v>42.49046325683594</v>
+        <v>42.4904670715332</v>
       </c>
       <c r="C704" t="n">
         <v>43.72333145141602</v>
@@ -16648,7 +16648,7 @@
         <v>44847</v>
       </c>
       <c r="B705" t="n">
-        <v>42.85004043579102</v>
+        <v>42.85004425048828</v>
       </c>
       <c r="C705" t="n">
         <v>44.09333419799805</v>
@@ -16740,7 +16740,7 @@
         <v>44853</v>
       </c>
       <c r="B709" t="n">
-        <v>43.3294563293457</v>
+        <v>43.32946395874023</v>
       </c>
       <c r="C709" t="n">
         <v>44.58666610717773</v>
@@ -16763,7 +16763,7 @@
         <v>44854</v>
       </c>
       <c r="B710" t="n">
-        <v>43.43635559082031</v>
+        <v>43.43635940551758</v>
       </c>
       <c r="C710" t="n">
         <v>44.6966667175293</v>
@@ -16786,7 +16786,7 @@
         <v>44855</v>
       </c>
       <c r="B711" t="n">
-        <v>44.31421661376953</v>
+        <v>44.3142204284668</v>
       </c>
       <c r="C711" t="n">
         <v>45.59999847412109</v>
@@ -16809,7 +16809,7 @@
         <v>44858</v>
       </c>
       <c r="B712" t="n">
-        <v>45.15969085693359</v>
+        <v>45.15968322753906</v>
       </c>
       <c r="C712" t="n">
         <v>46.47000122070312</v>
@@ -16832,7 +16832,7 @@
         <v>44859</v>
       </c>
       <c r="B713" t="n">
-        <v>45.37347793579102</v>
+        <v>45.37348937988281</v>
       </c>
       <c r="C713" t="n">
         <v>46.68999862670898</v>
@@ -16901,7 +16901,7 @@
         <v>44862</v>
       </c>
       <c r="B716" t="n">
-        <v>46.16388702392578</v>
+        <v>46.16388320922852</v>
       </c>
       <c r="C716" t="n">
         <v>47.50333404541016</v>
@@ -16924,7 +16924,7 @@
         <v>44865</v>
       </c>
       <c r="B717" t="n">
-        <v>46.10557556152344</v>
+        <v>46.10558319091797</v>
       </c>
       <c r="C717" t="n">
         <v>47.44333267211914</v>
@@ -16947,7 +16947,7 @@
         <v>44866</v>
       </c>
       <c r="B718" t="n">
-        <v>45.89825820922852</v>
+        <v>45.89826202392578</v>
       </c>
       <c r="C718" t="n">
         <v>47.22999954223633</v>
@@ -16970,7 +16970,7 @@
         <v>44867</v>
       </c>
       <c r="B719" t="n">
-        <v>45.5937614440918</v>
+        <v>45.59375762939453</v>
       </c>
       <c r="C719" t="n">
         <v>46.91666793823242</v>
@@ -17085,7 +17085,7 @@
         <v>44874</v>
       </c>
       <c r="B724" t="n">
-        <v>45.17912292480469</v>
+        <v>45.17913055419922</v>
       </c>
       <c r="C724" t="n">
         <v>46.4900016784668</v>
@@ -17177,7 +17177,7 @@
         <v>44880</v>
       </c>
       <c r="B728" t="n">
-        <v>47.76088714599609</v>
+        <v>47.76088333129883</v>
       </c>
       <c r="C728" t="n">
         <v>49.14666748046875</v>
@@ -17200,7 +17200,7 @@
         <v>44881</v>
       </c>
       <c r="B729" t="n">
-        <v>48.10425567626953</v>
+        <v>48.10425186157227</v>
       </c>
       <c r="C729" t="n">
         <v>49.5</v>
@@ -17223,7 +17223,7 @@
         <v>44882</v>
       </c>
       <c r="B730" t="n">
-        <v>47.94227981567383</v>
+        <v>47.94228363037109</v>
       </c>
       <c r="C730" t="n">
         <v>49.33333206176758</v>
@@ -17246,7 +17246,7 @@
         <v>44883</v>
       </c>
       <c r="B731" t="n">
-        <v>48.6646614074707</v>
+        <v>48.66465759277344</v>
       </c>
       <c r="C731" t="n">
         <v>50.07666778564453</v>
@@ -17269,7 +17269,7 @@
         <v>44886</v>
       </c>
       <c r="B732" t="n">
-        <v>48.96268081665039</v>
+        <v>48.96266937255859</v>
       </c>
       <c r="C732" t="n">
         <v>50.38333129882812</v>
@@ -17361,7 +17361,7 @@
         <v>44893</v>
       </c>
       <c r="B736" t="n">
-        <v>49.72715759277344</v>
+        <v>49.7271614074707</v>
       </c>
       <c r="C736" t="n">
         <v>51.16999816894531</v>
@@ -17430,7 +17430,7 @@
         <v>44896</v>
       </c>
       <c r="B739" t="n">
-        <v>49.68181228637695</v>
+        <v>49.68180847167969</v>
       </c>
       <c r="C739" t="n">
         <v>51.12333297729492</v>
@@ -17453,7 +17453,7 @@
         <v>44897</v>
       </c>
       <c r="B740" t="n">
-        <v>49.63322448730469</v>
+        <v>49.63322067260742</v>
       </c>
       <c r="C740" t="n">
         <v>51.07333374023438</v>
@@ -17499,7 +17499,7 @@
         <v>44901</v>
       </c>
       <c r="B742" t="n">
-        <v>48.55451965332031</v>
+        <v>48.55452346801758</v>
       </c>
       <c r="C742" t="n">
         <v>49.96333312988281</v>
@@ -17568,7 +17568,7 @@
         <v>44904</v>
       </c>
       <c r="B745" t="n">
-        <v>47.24834823608398</v>
+        <v>47.24835586547852</v>
       </c>
       <c r="C745" t="n">
         <v>48.43666839599609</v>
@@ -17591,7 +17591,7 @@
         <v>44907</v>
       </c>
       <c r="B746" t="n">
-        <v>48.1295166015625</v>
+        <v>48.12952041625977</v>
       </c>
       <c r="C746" t="n">
         <v>49.34000015258789</v>
@@ -17683,7 +17683,7 @@
         <v>44911</v>
       </c>
       <c r="B750" t="n">
-        <v>46.41595077514648</v>
+        <v>46.41594314575195</v>
       </c>
       <c r="C750" t="n">
         <v>47.58333206176758</v>
@@ -17706,7 +17706,7 @@
         <v>44914</v>
       </c>
       <c r="B751" t="n">
-        <v>46.43220138549805</v>
+        <v>46.43220901489258</v>
       </c>
       <c r="C751" t="n">
         <v>47.59999847412109</v>
@@ -17729,7 +17729,7 @@
         <v>44915</v>
       </c>
       <c r="B752" t="n">
-        <v>46.83865356445312</v>
+        <v>46.83864974975586</v>
       </c>
       <c r="C752" t="n">
         <v>48.01666641235352</v>
@@ -17752,7 +17752,7 @@
         <v>44916</v>
       </c>
       <c r="B753" t="n">
-        <v>47.20607757568359</v>
+        <v>47.20608139038086</v>
       </c>
       <c r="C753" t="n">
         <v>48.39333343505859</v>
@@ -17821,7 +17821,7 @@
         <v>44922</v>
       </c>
       <c r="B756" t="n">
-        <v>46.76061248779297</v>
+        <v>46.7606201171875</v>
       </c>
       <c r="C756" t="n">
         <v>47.93666839599609</v>
@@ -17913,7 +17913,7 @@
         <v>44929</v>
       </c>
       <c r="B760" t="n">
-        <v>46.69233322143555</v>
+        <v>46.69233703613281</v>
       </c>
       <c r="C760" t="n">
         <v>47.86666870117188</v>
@@ -17936,7 +17936,7 @@
         <v>44930</v>
       </c>
       <c r="B761" t="n">
-        <v>46.74436187744141</v>
+        <v>46.74435424804688</v>
       </c>
       <c r="C761" t="n">
         <v>47.91999816894531</v>
@@ -18005,7 +18005,7 @@
         <v>44935</v>
       </c>
       <c r="B764" t="n">
-        <v>47.13129043579102</v>
+        <v>47.13129425048828</v>
       </c>
       <c r="C764" t="n">
         <v>48.31666564941406</v>
@@ -18028,7 +18028,7 @@
         <v>44936</v>
       </c>
       <c r="B765" t="n">
-        <v>47.10203170776367</v>
+        <v>47.10202789306641</v>
       </c>
       <c r="C765" t="n">
         <v>48.28666687011719</v>
@@ -18051,7 +18051,7 @@
         <v>44937</v>
       </c>
       <c r="B766" t="n">
-        <v>47.51497650146484</v>
+        <v>47.51497268676758</v>
       </c>
       <c r="C766" t="n">
         <v>48.70999908447266</v>
@@ -18097,7 +18097,7 @@
         <v>44939</v>
       </c>
       <c r="B768" t="n">
-        <v>47.24184799194336</v>
+        <v>47.24184417724609</v>
       </c>
       <c r="C768" t="n">
         <v>48.43000030517578</v>
@@ -18166,7 +18166,7 @@
         <v>44945</v>
       </c>
       <c r="B771" t="n">
-        <v>45.1413459777832</v>
+        <v>45.14133834838867</v>
       </c>
       <c r="C771" t="n">
         <v>46.27666854858398</v>
@@ -18212,7 +18212,7 @@
         <v>44949</v>
       </c>
       <c r="B773" t="n">
-        <v>46.38018417358398</v>
+        <v>46.38017654418945</v>
       </c>
       <c r="C773" t="n">
         <v>47.54666519165039</v>
@@ -18235,7 +18235,7 @@
         <v>44950</v>
       </c>
       <c r="B774" t="n">
-        <v>46.50374221801758</v>
+        <v>46.50373840332031</v>
       </c>
       <c r="C774" t="n">
         <v>47.67333221435547</v>
@@ -18304,7 +18304,7 @@
         <v>44953</v>
       </c>
       <c r="B777" t="n">
-        <v>46.59478759765625</v>
+        <v>46.59478378295898</v>
       </c>
       <c r="C777" t="n">
         <v>47.76666641235352</v>
@@ -18350,7 +18350,7 @@
         <v>44957</v>
       </c>
       <c r="B779" t="n">
-        <v>46.78013229370117</v>
+        <v>46.78012466430664</v>
       </c>
       <c r="C779" t="n">
         <v>47.95666885375977</v>
@@ -18396,7 +18396,7 @@
         <v>44959</v>
       </c>
       <c r="B781" t="n">
-        <v>46.69883346557617</v>
+        <v>46.69883728027344</v>
       </c>
       <c r="C781" t="n">
         <v>47.87333297729492</v>
@@ -18419,7 +18419,7 @@
         <v>44960</v>
       </c>
       <c r="B782" t="n">
-        <v>46.07779312133789</v>
+        <v>46.07778930664062</v>
       </c>
       <c r="C782" t="n">
         <v>47.23666763305664</v>
@@ -18442,7 +18442,7 @@
         <v>44963</v>
       </c>
       <c r="B783" t="n">
-        <v>45.74287796020508</v>
+        <v>45.74288177490234</v>
       </c>
       <c r="C783" t="n">
         <v>46.89333343505859</v>
@@ -18488,7 +18488,7 @@
         <v>44965</v>
       </c>
       <c r="B785" t="n">
-        <v>45.59331130981445</v>
+        <v>45.59330749511719</v>
       </c>
       <c r="C785" t="n">
         <v>46.7400016784668</v>
@@ -18534,7 +18534,7 @@
         <v>44967</v>
       </c>
       <c r="B787" t="n">
-        <v>46.73134613037109</v>
+        <v>46.73134994506836</v>
       </c>
       <c r="C787" t="n">
         <v>47.90666580200195</v>
@@ -18557,7 +18557,7 @@
         <v>44970</v>
       </c>
       <c r="B788" t="n">
-        <v>47.44344329833984</v>
+        <v>47.44343948364258</v>
       </c>
       <c r="C788" t="n">
         <v>48.63666534423828</v>
@@ -18603,7 +18603,7 @@
         <v>44972</v>
       </c>
       <c r="B790" t="n">
-        <v>47.65803909301758</v>
+        <v>47.65804290771484</v>
       </c>
       <c r="C790" t="n">
         <v>48.85666656494141</v>
@@ -18626,7 +18626,7 @@
         <v>44973</v>
       </c>
       <c r="B791" t="n">
-        <v>46.91018676757812</v>
+        <v>46.91018295288086</v>
       </c>
       <c r="C791" t="n">
         <v>48.09000015258789</v>
@@ -18649,7 +18649,7 @@
         <v>44974</v>
       </c>
       <c r="B792" t="n">
-        <v>47.61576843261719</v>
+        <v>47.61577224731445</v>
       </c>
       <c r="C792" t="n">
         <v>48.81333160400391</v>
@@ -18672,7 +18672,7 @@
         <v>44978</v>
       </c>
       <c r="B793" t="n">
-        <v>47.9051628112793</v>
+        <v>47.90516662597656</v>
       </c>
       <c r="C793" t="n">
         <v>49.11000061035156</v>
@@ -18695,7 +18695,7 @@
         <v>44979</v>
       </c>
       <c r="B794" t="n">
-        <v>46.90042877197266</v>
+        <v>46.90043258666992</v>
       </c>
       <c r="C794" t="n">
         <v>48.08000183105469</v>
@@ -18718,7 +18718,7 @@
         <v>44980</v>
       </c>
       <c r="B795" t="n">
-        <v>46.20135116577148</v>
+        <v>46.20134735107422</v>
       </c>
       <c r="C795" t="n">
         <v>47.36333465576172</v>
@@ -18741,7 +18741,7 @@
         <v>44981</v>
       </c>
       <c r="B796" t="n">
-        <v>46.32490539550781</v>
+        <v>46.32490921020508</v>
       </c>
       <c r="C796" t="n">
         <v>47.4900016784668</v>
@@ -18833,7 +18833,7 @@
         <v>44987</v>
       </c>
       <c r="B800" t="n">
-        <v>45.68434906005859</v>
+        <v>45.68435287475586</v>
       </c>
       <c r="C800" t="n">
         <v>46.83333206176758</v>
@@ -18856,7 +18856,7 @@
         <v>44988</v>
       </c>
       <c r="B801" t="n">
-        <v>45.73962783813477</v>
+        <v>45.7396240234375</v>
       </c>
       <c r="C801" t="n">
         <v>46.88999938964844</v>
@@ -18879,7 +18879,7 @@
         <v>44991</v>
       </c>
       <c r="B802" t="n">
-        <v>45.73312759399414</v>
+        <v>45.73311996459961</v>
       </c>
       <c r="C802" t="n">
         <v>46.88333129882812</v>
@@ -18925,7 +18925,7 @@
         <v>44993</v>
       </c>
       <c r="B804" t="n">
-        <v>44.90397262573242</v>
+        <v>44.90398025512695</v>
       </c>
       <c r="C804" t="n">
         <v>46.03333282470703</v>
@@ -18971,7 +18971,7 @@
         <v>44995</v>
       </c>
       <c r="B806" t="n">
-        <v>44.53655242919922</v>
+        <v>44.53654861450195</v>
       </c>
       <c r="C806" t="n">
         <v>45.65666580200195</v>
@@ -19017,7 +19017,7 @@
         <v>44999</v>
       </c>
       <c r="B808" t="n">
-        <v>44.90397262573242</v>
+        <v>44.90398025512695</v>
       </c>
       <c r="C808" t="n">
         <v>46.03333282470703</v>
@@ -19109,7 +19109,7 @@
         <v>45005</v>
       </c>
       <c r="B812" t="n">
-        <v>46.00219345092773</v>
+        <v>46.00218963623047</v>
       </c>
       <c r="C812" t="n">
         <v>46.96666717529297</v>
@@ -19178,7 +19178,7 @@
         <v>45008</v>
       </c>
       <c r="B815" t="n">
-        <v>45.92057037353516</v>
+        <v>45.92056274414062</v>
       </c>
       <c r="C815" t="n">
         <v>46.88333129882812</v>
@@ -19224,7 +19224,7 @@
         <v>45012</v>
       </c>
       <c r="B817" t="n">
-        <v>47.06980514526367</v>
+        <v>47.06980895996094</v>
       </c>
       <c r="C817" t="n">
         <v>48.05666732788086</v>
@@ -19247,7 +19247,7 @@
         <v>45013</v>
       </c>
       <c r="B818" t="n">
-        <v>46.88697052001953</v>
+        <v>46.8869743347168</v>
       </c>
       <c r="C818" t="n">
         <v>47.86999893188477</v>
@@ -19270,7 +19270,7 @@
         <v>45014</v>
       </c>
       <c r="B819" t="n">
-        <v>47.08940124511719</v>
+        <v>47.08939743041992</v>
       </c>
       <c r="C819" t="n">
         <v>48.07666778564453</v>
@@ -19293,7 +19293,7 @@
         <v>45015</v>
       </c>
       <c r="B820" t="n">
-        <v>47.55953598022461</v>
+        <v>47.55954360961914</v>
       </c>
       <c r="C820" t="n">
         <v>48.55666732788086</v>
@@ -19316,7 +19316,7 @@
         <v>45016</v>
       </c>
       <c r="B821" t="n">
-        <v>48.14068984985352</v>
+        <v>48.14068603515625</v>
       </c>
       <c r="C821" t="n">
         <v>49.15000152587891</v>
@@ -19339,7 +19339,7 @@
         <v>45019</v>
       </c>
       <c r="B822" t="n">
-        <v>48.54552841186523</v>
+        <v>48.5455322265625</v>
       </c>
       <c r="C822" t="n">
         <v>49.56333160400391</v>
@@ -19385,7 +19385,7 @@
         <v>45021</v>
       </c>
       <c r="B824" t="n">
-        <v>48.8654899597168</v>
+        <v>48.86549377441406</v>
       </c>
       <c r="C824" t="n">
         <v>49.88999938964844</v>
@@ -19408,7 +19408,7 @@
         <v>45022</v>
       </c>
       <c r="B825" t="n">
-        <v>49.23442459106445</v>
+        <v>49.23442077636719</v>
       </c>
       <c r="C825" t="n">
         <v>50.26666641235352</v>
@@ -19431,7 +19431,7 @@
         <v>45026</v>
       </c>
       <c r="B826" t="n">
-        <v>49.13974380493164</v>
+        <v>49.13973617553711</v>
       </c>
       <c r="C826" t="n">
         <v>50.16999816894531</v>
@@ -19454,7 +19454,7 @@
         <v>45027</v>
       </c>
       <c r="B827" t="n">
-        <v>48.9960823059082</v>
+        <v>48.99608612060547</v>
       </c>
       <c r="C827" t="n">
         <v>50.02333450317383</v>
@@ -19477,7 +19477,7 @@
         <v>45028</v>
       </c>
       <c r="B828" t="n">
-        <v>48.75775146484375</v>
+        <v>48.75774765014648</v>
       </c>
       <c r="C828" t="n">
         <v>49.77999877929688</v>
@@ -19546,7 +19546,7 @@
         <v>45033</v>
       </c>
       <c r="B831" t="n">
-        <v>48.81652069091797</v>
+        <v>48.81651306152344</v>
       </c>
       <c r="C831" t="n">
         <v>49.84000015258789</v>
@@ -19615,7 +19615,7 @@
         <v>45036</v>
       </c>
       <c r="B834" t="n">
-        <v>49.28992080688477</v>
+        <v>49.28992462158203</v>
       </c>
       <c r="C834" t="n">
         <v>50.32333374023438</v>
@@ -19661,7 +19661,7 @@
         <v>45040</v>
       </c>
       <c r="B836" t="n">
-        <v>49.87433624267578</v>
+        <v>49.87434005737305</v>
       </c>
       <c r="C836" t="n">
         <v>50.91999816894531</v>
@@ -19684,7 +19684,7 @@
         <v>45041</v>
       </c>
       <c r="B837" t="n">
-        <v>49.48582458496094</v>
+        <v>49.48582077026367</v>
       </c>
       <c r="C837" t="n">
         <v>50.52333450317383</v>
@@ -19707,7 +19707,7 @@
         <v>45042</v>
       </c>
       <c r="B838" t="n">
-        <v>49.27033996582031</v>
+        <v>49.27033615112305</v>
       </c>
       <c r="C838" t="n">
         <v>50.3033332824707</v>
@@ -19730,7 +19730,7 @@
         <v>45043</v>
       </c>
       <c r="B839" t="n">
-        <v>49.42378234863281</v>
+        <v>49.42377853393555</v>
       </c>
       <c r="C839" t="n">
         <v>50.45999908447266</v>
@@ -19753,7 +19753,7 @@
         <v>45044</v>
       </c>
       <c r="B840" t="n">
-        <v>49.28992080688477</v>
+        <v>49.28992462158203</v>
       </c>
       <c r="C840" t="n">
         <v>50.32333374023438</v>
@@ -19776,7 +19776,7 @@
         <v>45047</v>
       </c>
       <c r="B841" t="n">
-        <v>49.49234771728516</v>
+        <v>49.49235153198242</v>
       </c>
       <c r="C841" t="n">
         <v>50.52999877929688</v>
@@ -19799,7 +19799,7 @@
         <v>45048</v>
       </c>
       <c r="B842" t="n">
-        <v>49.35848999023438</v>
+        <v>49.35848617553711</v>
       </c>
       <c r="C842" t="n">
         <v>50.39333343505859</v>
@@ -19822,7 +19822,7 @@
         <v>45049</v>
       </c>
       <c r="B843" t="n">
-        <v>49.17565536499023</v>
+        <v>49.1756591796875</v>
       </c>
       <c r="C843" t="n">
         <v>50.20666885375977</v>
@@ -19845,7 +19845,7 @@
         <v>45050</v>
       </c>
       <c r="B844" t="n">
-        <v>49.31330108642578</v>
+        <v>49.31329727172852</v>
       </c>
       <c r="C844" t="n">
         <v>50.15666580200195</v>
@@ -19868,7 +19868,7 @@
         <v>45051</v>
       </c>
       <c r="B845" t="n">
-        <v>49.73934936523438</v>
+        <v>49.73934555053711</v>
       </c>
       <c r="C845" t="n">
         <v>50.59000015258789</v>
@@ -19960,7 +19960,7 @@
         <v>45057</v>
       </c>
       <c r="B849" t="n">
-        <v>50.18178176879883</v>
+        <v>50.18177795410156</v>
       </c>
       <c r="C849" t="n">
         <v>51.04000091552734</v>
@@ -20029,7 +20029,7 @@
         <v>45062</v>
       </c>
       <c r="B852" t="n">
-        <v>49.0871696472168</v>
+        <v>49.08716583251953</v>
       </c>
       <c r="C852" t="n">
         <v>49.92666625976562</v>
@@ -20075,7 +20075,7 @@
         <v>45064</v>
       </c>
       <c r="B854" t="n">
-        <v>49.64103317260742</v>
+        <v>49.64102935791016</v>
       </c>
       <c r="C854" t="n">
         <v>50.4900016784668</v>
@@ -20098,7 +20098,7 @@
         <v>45065</v>
       </c>
       <c r="B855" t="n">
-        <v>49.12977600097656</v>
+        <v>49.12976837158203</v>
       </c>
       <c r="C855" t="n">
         <v>49.97000122070312</v>
@@ -20121,7 +20121,7 @@
         <v>45068</v>
       </c>
       <c r="B856" t="n">
-        <v>48.69716644287109</v>
+        <v>48.69717025756836</v>
       </c>
       <c r="C856" t="n">
         <v>49.52999877929688</v>
@@ -20144,7 +20144,7 @@
         <v>45069</v>
       </c>
       <c r="B857" t="n">
-        <v>48.60540771484375</v>
+        <v>48.60541152954102</v>
       </c>
       <c r="C857" t="n">
         <v>49.43666839599609</v>
@@ -20167,7 +20167,7 @@
         <v>45070</v>
       </c>
       <c r="B858" t="n">
-        <v>48.38255310058594</v>
+        <v>48.3825569152832</v>
       </c>
       <c r="C858" t="n">
         <v>49.20999908447266</v>
@@ -20213,7 +20213,7 @@
         <v>45072</v>
       </c>
       <c r="B860" t="n">
-        <v>47.98599624633789</v>
+        <v>47.98600006103516</v>
       </c>
       <c r="C860" t="n">
         <v>48.80666732788086</v>
@@ -20236,7 +20236,7 @@
         <v>45076</v>
       </c>
       <c r="B861" t="n">
-        <v>47.86801910400391</v>
+        <v>47.86801528930664</v>
       </c>
       <c r="C861" t="n">
         <v>48.68666839599609</v>
@@ -20259,7 +20259,7 @@
         <v>45077</v>
       </c>
       <c r="B862" t="n">
-        <v>48.13347625732422</v>
+        <v>48.13348007202148</v>
       </c>
       <c r="C862" t="n">
         <v>48.95666885375977</v>
@@ -20305,7 +20305,7 @@
         <v>45079</v>
       </c>
       <c r="B864" t="n">
-        <v>48.77255249023438</v>
+        <v>48.77254486083984</v>
       </c>
       <c r="C864" t="n">
         <v>49.60666656494141</v>
@@ -20328,7 +20328,7 @@
         <v>45082</v>
       </c>
       <c r="B865" t="n">
-        <v>49.09371948242188</v>
+        <v>49.09372329711914</v>
       </c>
       <c r="C865" t="n">
         <v>49.93333435058594</v>
@@ -20351,7 +20351,7 @@
         <v>45083</v>
       </c>
       <c r="B866" t="n">
-        <v>49.0871696472168</v>
+        <v>49.08716583251953</v>
       </c>
       <c r="C866" t="n">
         <v>49.92666625976562</v>
@@ -20374,7 +20374,7 @@
         <v>45084</v>
       </c>
       <c r="B867" t="n">
-        <v>49.15927124023438</v>
+        <v>49.15926742553711</v>
       </c>
       <c r="C867" t="n">
         <v>50</v>
@@ -20397,7 +20397,7 @@
         <v>45085</v>
       </c>
       <c r="B868" t="n">
-        <v>49.87044143676758</v>
+        <v>49.87043762207031</v>
       </c>
       <c r="C868" t="n">
         <v>50.72333145141602</v>
@@ -20443,7 +20443,7 @@
         <v>45089</v>
       </c>
       <c r="B870" t="n">
-        <v>50.50295639038086</v>
+        <v>50.50296020507812</v>
       </c>
       <c r="C870" t="n">
         <v>51.36666870117188</v>
@@ -20466,7 +20466,7 @@
         <v>45090</v>
       </c>
       <c r="B871" t="n">
-        <v>50.8962287902832</v>
+        <v>50.89623260498047</v>
       </c>
       <c r="C871" t="n">
         <v>51.76666641235352</v>
@@ -20489,7 +20489,7 @@
         <v>45091</v>
       </c>
       <c r="B872" t="n">
-        <v>51.4107666015625</v>
+        <v>51.41076278686523</v>
       </c>
       <c r="C872" t="n">
         <v>52.29000091552734</v>
@@ -20535,7 +20535,7 @@
         <v>45093</v>
       </c>
       <c r="B874" t="n">
-        <v>50.97160339355469</v>
+        <v>50.97160720825195</v>
       </c>
       <c r="C874" t="n">
         <v>51.84333419799805</v>
@@ -20558,7 +20558,7 @@
         <v>45097</v>
       </c>
       <c r="B875" t="n">
-        <v>50.52262115478516</v>
+        <v>50.52261734008789</v>
       </c>
       <c r="C875" t="n">
         <v>51.38666534423828</v>
@@ -20581,7 +20581,7 @@
         <v>45098</v>
       </c>
       <c r="B876" t="n">
-        <v>50.62094116210938</v>
+        <v>50.62093734741211</v>
       </c>
       <c r="C876" t="n">
         <v>51.48666763305664</v>
@@ -20604,7 +20604,7 @@
         <v>45099</v>
       </c>
       <c r="B877" t="n">
-        <v>51.04370880126953</v>
+        <v>51.04370498657227</v>
       </c>
       <c r="C877" t="n">
         <v>51.91666793823242</v>
@@ -20627,7 +20627,7 @@
         <v>45100</v>
       </c>
       <c r="B878" t="n">
-        <v>50.94866180419922</v>
+        <v>50.94866561889648</v>
       </c>
       <c r="C878" t="n">
         <v>51.81999969482422</v>
@@ -20650,7 +20650,7 @@
         <v>45103</v>
       </c>
       <c r="B879" t="n">
-        <v>50.81429290771484</v>
+        <v>50.81430053710938</v>
       </c>
       <c r="C879" t="n">
         <v>51.68333435058594</v>
@@ -20673,7 +20673,7 @@
         <v>45104</v>
       </c>
       <c r="B880" t="n">
-        <v>50.63077163696289</v>
+        <v>50.63076782226562</v>
       </c>
       <c r="C880" t="n">
         <v>51.49666595458984</v>
@@ -20742,7 +20742,7 @@
         <v>45107</v>
       </c>
       <c r="B883" t="n">
-        <v>51.51235961914062</v>
+        <v>51.51236343383789</v>
       </c>
       <c r="C883" t="n">
         <v>52.39333343505859</v>
@@ -20765,7 +20765,7 @@
         <v>45110</v>
       </c>
       <c r="B884" t="n">
-        <v>51.84663772583008</v>
+        <v>51.84664154052734</v>
       </c>
       <c r="C884" t="n">
         <v>52.73333358764648</v>
@@ -20811,7 +20811,7 @@
         <v>45113</v>
       </c>
       <c r="B886" t="n">
-        <v>51.48942184448242</v>
+        <v>51.48941421508789</v>
       </c>
       <c r="C886" t="n">
         <v>52.36999893188477</v>
@@ -20834,7 +20834,7 @@
         <v>45114</v>
       </c>
       <c r="B887" t="n">
-        <v>50.30303955078125</v>
+        <v>50.30304336547852</v>
       </c>
       <c r="C887" t="n">
         <v>51.16333389282227</v>
@@ -20857,7 +20857,7 @@
         <v>45117</v>
       </c>
       <c r="B888" t="n">
-        <v>50.75858306884766</v>
+        <v>50.75858688354492</v>
       </c>
       <c r="C888" t="n">
         <v>51.62666702270508</v>
@@ -20880,7 +20880,7 @@
         <v>45118</v>
       </c>
       <c r="B889" t="n">
-        <v>50.68320465087891</v>
+        <v>50.68320846557617</v>
       </c>
       <c r="C889" t="n">
         <v>51.54999923706055</v>
@@ -20903,7 +20903,7 @@
         <v>45119</v>
       </c>
       <c r="B890" t="n">
-        <v>50.81101608276367</v>
+        <v>50.81101989746094</v>
       </c>
       <c r="C890" t="n">
         <v>51.68000030517578</v>
@@ -20926,7 +20926,7 @@
         <v>45120</v>
       </c>
       <c r="B891" t="n">
-        <v>50.51278305053711</v>
+        <v>50.51279067993164</v>
       </c>
       <c r="C891" t="n">
         <v>51.37666702270508</v>
@@ -20949,7 +20949,7 @@
         <v>45121</v>
       </c>
       <c r="B892" t="n">
-        <v>50.68648529052734</v>
+        <v>50.68648147583008</v>
       </c>
       <c r="C892" t="n">
         <v>51.5533332824707</v>
@@ -20995,7 +20995,7 @@
         <v>45125</v>
       </c>
       <c r="B894" t="n">
-        <v>50.65699005126953</v>
+        <v>50.65698623657227</v>
       </c>
       <c r="C894" t="n">
         <v>51.52333450317383</v>
@@ -21064,7 +21064,7 @@
         <v>45128</v>
       </c>
       <c r="B897" t="n">
-        <v>51.90235900878906</v>
+        <v>51.9023551940918</v>
       </c>
       <c r="C897" t="n">
         <v>52.79000091552734</v>
@@ -21087,7 +21087,7 @@
         <v>45131</v>
       </c>
       <c r="B898" t="n">
-        <v>52.20714569091797</v>
+        <v>52.2071418762207</v>
       </c>
       <c r="C898" t="n">
         <v>53.09999847412109</v>
@@ -21110,7 +21110,7 @@
         <v>45132</v>
       </c>
       <c r="B899" t="n">
-        <v>52.16454315185547</v>
+        <v>52.1645393371582</v>
       </c>
       <c r="C899" t="n">
         <v>53.05666732788086</v>
@@ -21133,7 +21133,7 @@
         <v>45133</v>
       </c>
       <c r="B900" t="n">
-        <v>52.35134124755859</v>
+        <v>52.35134506225586</v>
       </c>
       <c r="C900" t="n">
         <v>53.24666595458984</v>
@@ -21156,7 +21156,7 @@
         <v>45134</v>
       </c>
       <c r="B901" t="n">
-        <v>52.16126251220703</v>
+        <v>52.16125869750977</v>
       </c>
       <c r="C901" t="n">
         <v>53.0533332824707</v>
@@ -21225,7 +21225,7 @@
         <v>45139</v>
       </c>
       <c r="B904" t="n">
-        <v>52.14487457275391</v>
+        <v>52.14487838745117</v>
       </c>
       <c r="C904" t="n">
         <v>53.03666687011719</v>
@@ -21248,7 +21248,7 @@
         <v>45140</v>
       </c>
       <c r="B905" t="n">
-        <v>52.18092346191406</v>
+        <v>52.18092727661133</v>
       </c>
       <c r="C905" t="n">
         <v>53.07333374023438</v>
@@ -21271,7 +21271,7 @@
         <v>45141</v>
       </c>
       <c r="B906" t="n">
-        <v>52.19403076171875</v>
+        <v>52.19403457641602</v>
       </c>
       <c r="C906" t="n">
         <v>53.08666610717773</v>
@@ -21317,7 +21317,7 @@
         <v>45145</v>
       </c>
       <c r="B908" t="n">
-        <v>52.59713363647461</v>
+        <v>52.59713745117188</v>
       </c>
       <c r="C908" t="n">
         <v>53.49666595458984</v>
@@ -21340,7 +21340,7 @@
         <v>45146</v>
       </c>
       <c r="B909" t="n">
-        <v>52.64957809448242</v>
+        <v>52.64957427978516</v>
       </c>
       <c r="C909" t="n">
         <v>53.54999923706055</v>
